--- a/codes/Correlations128.xlsx
+++ b/codes/Correlations128.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yann\Documents\Polytechnique\Physique\phy571\phy571\codes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -22,8 +27,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,11 +65,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -106,7 +119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -138,9 +151,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,6 +186,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -347,14 +362,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -365,22 +382,22 @@
         <v>0.65</v>
       </c>
       <c r="D1">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="E1">
-        <v>0.7500000000000001</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="F1">
-        <v>0.8000000000000002</v>
+        <v>0.80000000000000016</v>
       </c>
       <c r="G1">
         <v>0.8500000000000002</v>
       </c>
       <c r="H1">
-        <v>0.9000000000000002</v>
+        <v>0.90000000000000024</v>
       </c>
       <c r="I1">
-        <v>0.9500000000000003</v>
+        <v>0.95000000000000029</v>
       </c>
       <c r="J1">
         <v>1</v>
@@ -392,16 +409,16 @@
         <v>1.100000000000001</v>
       </c>
       <c r="M1">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="N1">
-        <v>1.200000000000001</v>
+        <v>1.2000000000000011</v>
       </c>
       <c r="O1">
         <v>1.25</v>
       </c>
       <c r="P1">
-        <v>1.300000000000001</v>
+        <v>1.3000000000000009</v>
       </c>
       <c r="Q1">
         <v>1.350000000000001</v>
@@ -410,10 +427,31 @@
         <v>1.400000000000001</v>
       </c>
       <c r="S1">
-        <v>1.450000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>1.4500000000000011</v>
+      </c>
+      <c r="T1">
+        <v>3</v>
+      </c>
+      <c r="U1">
+        <v>8</v>
+      </c>
+      <c r="V1">
+        <v>13</v>
+      </c>
+      <c r="W1">
+        <v>18</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>28</v>
+      </c>
+      <c r="Z1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -468,134 +506,197 @@
       <c r="S3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B4">
-        <v>0.1881366123112296</v>
+        <v>0.18813661231122961</v>
       </c>
       <c r="C4">
         <v>0.2082795741891891</v>
       </c>
       <c r="D4">
-        <v>0.2476693751133049</v>
+        <v>0.24766937511330489</v>
       </c>
       <c r="E4">
-        <v>0.276547342585201</v>
+        <v>0.27654734258520097</v>
       </c>
       <c r="F4">
-        <v>0.3195024718082577</v>
+        <v>0.31950247180825769</v>
       </c>
       <c r="G4">
-        <v>0.364619603945234</v>
+        <v>0.36461960394523402</v>
       </c>
       <c r="H4">
-        <v>0.4189917083558463</v>
+        <v>0.41899170835584632</v>
       </c>
       <c r="I4">
-        <v>0.4917570200378665</v>
+        <v>0.49175702003786648</v>
       </c>
       <c r="J4">
-        <v>0.5741358113876079</v>
+        <v>0.57413581138760794</v>
       </c>
       <c r="K4">
-        <v>0.6306447878042712</v>
+        <v>0.63064478780427125</v>
       </c>
       <c r="L4">
-        <v>0.6809393314046345</v>
+        <v>0.68093933140463447</v>
       </c>
       <c r="M4">
-        <v>0.7119902908664349</v>
+        <v>0.71199029086643495</v>
       </c>
       <c r="N4">
-        <v>0.7496079399283564</v>
+        <v>0.74960793992835639</v>
       </c>
       <c r="O4">
-        <v>0.7639941469635764</v>
+        <v>0.76399414696357637</v>
       </c>
       <c r="P4">
-        <v>0.7741393364215706</v>
+        <v>0.77413933642157062</v>
       </c>
       <c r="Q4">
-        <v>0.7869653586928725</v>
+        <v>0.78696535869287254</v>
       </c>
       <c r="R4">
-        <v>0.7969514006816809</v>
+        <v>0.79695140068168091</v>
       </c>
       <c r="S4">
-        <v>0.8028021656158859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>0.80280216561588591</v>
+      </c>
+      <c r="T4">
+        <v>0.79418321999999997</v>
+      </c>
+      <c r="U4">
+        <v>0.96308943599999997</v>
+      </c>
+      <c r="V4">
+        <v>0.97396030700000003</v>
+      </c>
+      <c r="W4">
+        <v>0.985239961</v>
+      </c>
+      <c r="X4">
+        <v>0.98426881499999996</v>
+      </c>
+      <c r="Y4">
+        <v>0.99015141600000001</v>
+      </c>
+      <c r="Z4">
+        <v>0.98988885900000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B5">
-        <v>0.07231852607166057</v>
+        <v>7.2318526071660574E-2</v>
       </c>
       <c r="C5">
-        <v>0.09055607274790572</v>
+        <v>9.0556072747905725E-2</v>
       </c>
       <c r="D5">
         <v>0.1124239469847846</v>
       </c>
       <c r="E5">
-        <v>0.1296004028156288</v>
+        <v>0.12960040281562879</v>
       </c>
       <c r="F5">
         <v>0.1667125228034661</v>
       </c>
       <c r="G5">
-        <v>0.2157942322812046</v>
+        <v>0.21579423228120459</v>
       </c>
       <c r="H5">
-        <v>0.2624035826576753</v>
+        <v>0.26240358265767533</v>
       </c>
       <c r="I5">
-        <v>0.3435386927017069</v>
+        <v>0.34353869270170689</v>
       </c>
       <c r="J5">
         <v>0.4441584798966754</v>
       </c>
       <c r="K5">
-        <v>0.5089290967276784</v>
+        <v>0.50892909672767839</v>
       </c>
       <c r="L5">
-        <v>0.5678872103745947</v>
+        <v>0.56788721037459466</v>
       </c>
       <c r="M5">
-        <v>0.6125530885129117</v>
+        <v>0.61255308851291168</v>
       </c>
       <c r="N5">
-        <v>0.6539337739584949</v>
+        <v>0.65393377395849495</v>
       </c>
       <c r="O5">
-        <v>0.6730359755890604</v>
+        <v>0.67303597558906036</v>
       </c>
       <c r="P5">
         <v>0.6864031696081242</v>
       </c>
       <c r="Q5">
-        <v>0.7010539932263777</v>
+        <v>0.70105399322637774</v>
       </c>
       <c r="R5">
-        <v>0.717763787306999</v>
+        <v>0.71776378730699897</v>
       </c>
       <c r="S5">
-        <v>0.7260805370769575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>0.72608053707695752</v>
+      </c>
+      <c r="T5">
+        <v>0.75726581400000004</v>
+      </c>
+      <c r="U5">
+        <v>0.94815820500000003</v>
+      </c>
+      <c r="V5">
+        <v>0.96731853099999998</v>
+      </c>
+      <c r="W5">
+        <v>0.97998469600000004</v>
+      </c>
+      <c r="X5">
+        <v>0.97873381999999998</v>
+      </c>
+      <c r="Y5">
+        <v>0.98643961899999999</v>
+      </c>
+      <c r="Z5">
+        <v>0.98641135599999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B6">
-        <v>0.02040570069959995</v>
+        <v>2.040570069959995E-2</v>
       </c>
       <c r="C6">
-        <v>0.03483580272225407</v>
+        <v>3.4835802722254068E-2</v>
       </c>
       <c r="D6">
-        <v>0.05432643670395537</v>
+        <v>5.4326436703955372E-2</v>
       </c>
       <c r="E6">
-        <v>0.06289184049759507</v>
+        <v>6.2891840497595067E-2</v>
       </c>
       <c r="F6">
-        <v>0.09566790550643696</v>
+        <v>9.5667905506436959E-2</v>
       </c>
       <c r="G6">
         <v>0.1337746419467952</v>
@@ -604,355 +705,481 @@
         <v>0.1745041063603063</v>
       </c>
       <c r="I6">
-        <v>0.2625158654532116</v>
+        <v>0.26251586545321159</v>
       </c>
       <c r="J6">
-        <v>0.363365519452633</v>
+        <v>0.36336551945263301</v>
       </c>
       <c r="K6">
-        <v>0.4498508083597377</v>
+        <v>0.44985080835973767</v>
       </c>
       <c r="L6">
-        <v>0.511564789842293</v>
+        <v>0.51156478984229303</v>
       </c>
       <c r="M6">
-        <v>0.5561868996426442</v>
+        <v>0.55618689964264423</v>
       </c>
       <c r="N6">
-        <v>0.6055593670259526</v>
+        <v>0.60555936702595259</v>
       </c>
       <c r="O6">
-        <v>0.6254922483010967</v>
+        <v>0.62549224830109673</v>
       </c>
       <c r="P6">
-        <v>0.6383941479706386</v>
+        <v>0.63839414797063865</v>
       </c>
       <c r="Q6">
-        <v>0.6581755099071948</v>
+        <v>0.65817550990719476</v>
       </c>
       <c r="R6">
-        <v>0.6739734292336639</v>
+        <v>0.67397342923366388</v>
       </c>
       <c r="S6">
-        <v>0.6815581166570632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>0.68155811665706323</v>
+      </c>
+      <c r="T6">
+        <v>0.72873118599999998</v>
+      </c>
+      <c r="U6">
+        <v>0.93948436499999999</v>
+      </c>
+      <c r="V6">
+        <v>0.96116332000000004</v>
+      </c>
+      <c r="W6">
+        <v>0.97589417899999997</v>
+      </c>
+      <c r="X6">
+        <v>0.97729296799999998</v>
+      </c>
+      <c r="Y6">
+        <v>0.98453922100000002</v>
+      </c>
+      <c r="Z6">
+        <v>0.98538498200000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>0.008103635671325838</v>
+        <v>8.1036356713258383E-3</v>
       </c>
       <c r="C7">
-        <v>0.01252930789009872</v>
+        <v>1.252930789009872E-2</v>
       </c>
       <c r="D7">
-        <v>0.02324016389838026</v>
+        <v>2.324016389838026E-2</v>
       </c>
       <c r="E7">
-        <v>0.03239734049434016</v>
+        <v>3.2397340494340163E-2</v>
       </c>
       <c r="F7">
-        <v>0.05307165347187885</v>
+        <v>5.3071653471878852E-2</v>
       </c>
       <c r="G7">
-        <v>0.0893420049668936</v>
+        <v>8.9342004966893596E-2</v>
       </c>
       <c r="H7">
-        <v>0.1243589280907152</v>
+        <v>0.12435892809071521</v>
       </c>
       <c r="I7">
-        <v>0.2086110225164012</v>
+        <v>0.20861102251640121</v>
       </c>
       <c r="J7">
-        <v>0.3166473027062677</v>
+        <v>0.31664730270626767</v>
       </c>
       <c r="K7">
-        <v>0.4016949111185151</v>
+        <v>0.40169491111851507</v>
       </c>
       <c r="L7">
-        <v>0.468066598411834</v>
+        <v>0.46806659841183401</v>
       </c>
       <c r="M7">
         <v>0.5181659534544798</v>
       </c>
       <c r="N7">
-        <v>0.569487028557756</v>
+        <v>0.56948702855775601</v>
       </c>
       <c r="O7">
-        <v>0.59180206824811</v>
+        <v>0.59180206824810999</v>
       </c>
       <c r="P7">
-        <v>0.6097033680392874</v>
+        <v>0.60970336803928737</v>
       </c>
       <c r="Q7">
-        <v>0.6308695663229937</v>
+        <v>0.63086956632299374</v>
       </c>
       <c r="R7">
-        <v>0.6438891704585875</v>
+        <v>0.64388917045858751</v>
       </c>
       <c r="S7">
         <v>0.6565958777412132</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>0.73052288300000001</v>
+      </c>
+      <c r="U7">
+        <v>0.93641140199999995</v>
+      </c>
+      <c r="V7">
+        <v>0.96095638999999999</v>
+      </c>
+      <c r="W7">
+        <v>0.97239025499999998</v>
+      </c>
+      <c r="X7">
+        <v>0.97412564499999998</v>
+      </c>
+      <c r="Y7">
+        <v>0.98243862100000001</v>
+      </c>
+      <c r="Z7">
+        <v>0.98408232399999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>0.004887631273987433</v>
+        <v>4.8876312739874334E-3</v>
       </c>
       <c r="C8">
-        <v>0.00963864981633214</v>
+        <v>9.6386498163321399E-3</v>
       </c>
       <c r="D8">
-        <v>0.01451913179778115</v>
+        <v>1.451913179778115E-2</v>
       </c>
       <c r="E8">
-        <v>0.01619531101068419</v>
+        <v>1.619531101068419E-2</v>
       </c>
       <c r="F8">
-        <v>0.03877982785689991</v>
+        <v>3.8779827856899908E-2</v>
       </c>
       <c r="G8">
-        <v>0.06314282520269887</v>
+        <v>6.3142825202698871E-2</v>
       </c>
       <c r="H8">
-        <v>0.09418399986226973</v>
+        <v>9.4183999862269732E-2</v>
       </c>
       <c r="I8">
-        <v>0.1748705360530795</v>
+        <v>0.17487053605307951</v>
       </c>
       <c r="J8">
-        <v>0.2828057022626149</v>
+        <v>0.28280570226261492</v>
       </c>
       <c r="K8">
-        <v>0.3736737240531173</v>
+        <v>0.37367372405311727</v>
       </c>
       <c r="L8">
-        <v>0.4389282547587546</v>
+        <v>0.43892825475875458</v>
       </c>
       <c r="M8">
-        <v>0.4986153940378334</v>
+        <v>0.49861539403783339</v>
       </c>
       <c r="N8">
-        <v>0.5423646432861963</v>
+        <v>0.54236464328619627</v>
       </c>
       <c r="O8">
-        <v>0.5701935843009986</v>
+        <v>0.57019358430099865</v>
       </c>
       <c r="P8">
         <v>0.5867452690741346</v>
       </c>
       <c r="Q8">
-        <v>0.6064995985498908</v>
+        <v>0.60649959854989077</v>
       </c>
       <c r="R8">
-        <v>0.6234944555973799</v>
+        <v>0.62349445559737993</v>
       </c>
       <c r="S8">
-        <v>0.6375014640971194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>0.63750146409711939</v>
+      </c>
+      <c r="T8">
+        <v>0.71751602699999995</v>
+      </c>
+      <c r="U8">
+        <v>0.929298085</v>
+      </c>
+      <c r="V8">
+        <v>0.95865305999999995</v>
+      </c>
+      <c r="W8">
+        <v>0.97076241200000002</v>
+      </c>
+      <c r="X8">
+        <v>0.97222819900000002</v>
+      </c>
+      <c r="Y8">
+        <v>0.98163221599999995</v>
+      </c>
+      <c r="Z8">
+        <v>0.98355286099999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>-0.002124463247082513</v>
+        <v>-2.1244632470825129E-3</v>
       </c>
       <c r="C9">
-        <v>-0.000806226958640492</v>
+        <v>-8.0622695864049202E-4</v>
       </c>
       <c r="D9">
-        <v>0.005697240179332022</v>
+        <v>5.6972401793320216E-3</v>
       </c>
       <c r="E9">
-        <v>0.008483090871241982</v>
+        <v>8.4830908712419818E-3</v>
       </c>
       <c r="F9">
-        <v>0.01801782217879809</v>
+        <v>1.801782217879809E-2</v>
       </c>
       <c r="G9">
-        <v>0.03772008363354653</v>
+        <v>3.7720083633546529E-2</v>
       </c>
       <c r="H9">
-        <v>0.07520480742751089</v>
+        <v>7.5204807427510886E-2</v>
       </c>
       <c r="I9">
-        <v>0.1494971649888786</v>
+        <v>0.14949716498887861</v>
       </c>
       <c r="J9">
-        <v>0.2544462280476305</v>
+        <v>0.25444622804763051</v>
       </c>
       <c r="K9">
-        <v>0.3450666851647274</v>
+        <v>0.34506668516472738</v>
       </c>
       <c r="L9">
         <v>0.4233558763772815</v>
       </c>
       <c r="M9">
-        <v>0.4770529054972361</v>
+        <v>0.47705290549723611</v>
       </c>
       <c r="N9">
-        <v>0.5231531232962772</v>
+        <v>0.52315312329627717</v>
       </c>
       <c r="O9">
         <v>0.5539255380328979</v>
       </c>
       <c r="P9">
-        <v>0.5723135299232437</v>
+        <v>0.57231352992324369</v>
       </c>
       <c r="Q9">
-        <v>0.5905067839392387</v>
+        <v>0.59050678393923872</v>
       </c>
       <c r="R9">
-        <v>0.6049306629271203</v>
+        <v>0.60493066292712028</v>
       </c>
       <c r="S9">
-        <v>0.6186557192138955</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>0.61865571921389551</v>
+      </c>
+      <c r="T9">
+        <v>0.69441774499999998</v>
+      </c>
+      <c r="U9">
+        <v>0.92849356500000002</v>
+      </c>
+      <c r="V9">
+        <v>0.95564735999999995</v>
+      </c>
+      <c r="W9">
+        <v>0.97018981400000004</v>
+      </c>
+      <c r="X9">
+        <v>0.97106361799999996</v>
+      </c>
+      <c r="Y9">
+        <v>0.98083638799999995</v>
+      </c>
+      <c r="Z9">
+        <v>0.98278668599999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>-0.002602880702819315</v>
+        <v>-2.602880702819315E-3</v>
       </c>
       <c r="C10">
-        <v>0.01111471544217638</v>
+        <v>1.111471544217638E-2</v>
       </c>
       <c r="D10">
-        <v>0.0018061738360788</v>
+        <v>1.8061738360788001E-3</v>
       </c>
       <c r="E10">
-        <v>0.008933242181901183</v>
+        <v>8.9332421819011826E-3</v>
       </c>
       <c r="F10">
-        <v>0.006307639169777815</v>
+        <v>6.3076391697778154E-3</v>
       </c>
       <c r="G10">
-        <v>0.02809693784826114</v>
+        <v>2.8096937848261141E-2</v>
       </c>
       <c r="H10">
-        <v>0.0601946170377681</v>
+        <v>6.01946170377681E-2</v>
       </c>
       <c r="I10">
         <v>0.1249435268099562</v>
       </c>
       <c r="J10">
-        <v>0.2348028846334305</v>
+        <v>0.23480288463343049</v>
       </c>
       <c r="K10">
-        <v>0.326334579233988</v>
+        <v>0.32633457923398801</v>
       </c>
       <c r="L10">
         <v>0.4043574703634597</v>
       </c>
       <c r="M10">
-        <v>0.4598404014010367</v>
+        <v>0.45984040140103671</v>
       </c>
       <c r="N10">
-        <v>0.5077569896124882</v>
+        <v>0.50775698961248816</v>
       </c>
       <c r="O10">
         <v>0.536927243932801</v>
       </c>
       <c r="P10">
-        <v>0.5586912675298578</v>
+        <v>0.55869126752985776</v>
       </c>
       <c r="Q10">
         <v>0.5747664300984443</v>
       </c>
       <c r="R10">
-        <v>0.5910829425916461</v>
+        <v>0.59108294259164607</v>
       </c>
       <c r="S10">
-        <v>0.6089991679433461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>0.60899916794334608</v>
+      </c>
+      <c r="T10">
+        <v>0.69848342299999999</v>
+      </c>
+      <c r="U10">
+        <v>0.92502307699999997</v>
+      </c>
+      <c r="V10">
+        <v>0.95446920899999999</v>
+      </c>
+      <c r="W10">
+        <v>0.96845240600000004</v>
+      </c>
+      <c r="X10">
+        <v>0.97055518399999996</v>
+      </c>
+      <c r="Y10">
+        <v>0.97972313</v>
+      </c>
+      <c r="Z10">
+        <v>0.98224270599999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>-0.002343738817246436</v>
+        <v>-2.343738817246436E-3</v>
       </c>
       <c r="C11">
-        <v>0.00423018570752122</v>
+        <v>4.2301857075212196E-3</v>
       </c>
       <c r="D11">
-        <v>0.003146323356679688</v>
+        <v>3.1463233566796879E-3</v>
       </c>
       <c r="E11">
-        <v>-0.001481297313206492</v>
+        <v>-1.4812973132064919E-3</v>
       </c>
       <c r="F11">
-        <v>0.004470467953431466</v>
+        <v>4.4704679534314663E-3</v>
       </c>
       <c r="G11">
-        <v>0.02258084095205861</v>
+        <v>2.258084095205861E-2</v>
       </c>
       <c r="H11">
-        <v>0.04814321025752408</v>
+        <v>4.8143210257524077E-2</v>
       </c>
       <c r="I11">
         <v>0.1049062070883226</v>
       </c>
       <c r="J11">
-        <v>0.209495632607426</v>
+        <v>0.20949563260742601</v>
       </c>
       <c r="K11">
-        <v>0.30804516194853</v>
+        <v>0.30804516194852999</v>
       </c>
       <c r="L11">
-        <v>0.3878399068252755</v>
+        <v>0.38783990682527553</v>
       </c>
       <c r="M11">
-        <v>0.4449502297581258</v>
+        <v>0.44495022975812581</v>
       </c>
       <c r="N11">
-        <v>0.4923065816137245</v>
+        <v>0.49230658161372448</v>
       </c>
       <c r="O11">
-        <v>0.5209699962251078</v>
+        <v>0.52096999622510776</v>
       </c>
       <c r="P11">
-        <v>0.5475933022251314</v>
+        <v>0.54759330222513136</v>
       </c>
       <c r="Q11">
-        <v>0.5636582436786101</v>
+        <v>0.56365824367861006</v>
       </c>
       <c r="R11">
-        <v>0.57857595719616</v>
+        <v>0.57857595719615995</v>
       </c>
       <c r="S11">
-        <v>0.5933713792334857</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>0.59337137923348571</v>
+      </c>
+      <c r="T11">
+        <v>0.683633351</v>
+      </c>
+      <c r="U11">
+        <v>0.92061532999999995</v>
+      </c>
+      <c r="V11">
+        <v>0.95401662600000003</v>
+      </c>
+      <c r="W11">
+        <v>0.96862895400000004</v>
+      </c>
+      <c r="X11">
+        <v>0.96840586500000003</v>
+      </c>
+      <c r="Y11">
+        <v>0.97907415099999995</v>
+      </c>
+      <c r="Z11">
+        <v>0.98149025300000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B12">
-        <v>-0.0003165592393263996</v>
+        <v>-3.1655923932639958E-4</v>
       </c>
       <c r="C12">
-        <v>-0.005211879537278285</v>
+        <v>-5.2118795372782852E-3</v>
       </c>
       <c r="D12">
-        <v>0.006631706154706687</v>
+        <v>6.6317061547066869E-3</v>
       </c>
       <c r="E12">
-        <v>0.001585420871690072</v>
+        <v>1.585420871690072E-3</v>
       </c>
       <c r="F12">
-        <v>0.008173032242745286</v>
+        <v>8.1730322427452859E-3</v>
       </c>
       <c r="G12">
-        <v>0.01308294912223753</v>
+        <v>1.3082949122237531E-2</v>
       </c>
       <c r="H12">
-        <v>0.03413296151968892</v>
+        <v>3.413296151968892E-2</v>
       </c>
       <c r="I12">
-        <v>0.08295350633314026</v>
+        <v>8.2953506333140262E-2</v>
       </c>
       <c r="J12">
-        <v>0.1998753211090792</v>
+        <v>0.19987532110907921</v>
       </c>
       <c r="K12">
-        <v>0.2936708995588894</v>
+        <v>0.29367089955888942</v>
       </c>
       <c r="L12">
-        <v>0.3761212670789461</v>
+        <v>0.37612126707894611</v>
       </c>
       <c r="M12">
-        <v>0.4306325612217314</v>
+        <v>0.43063256122173138</v>
       </c>
       <c r="N12">
         <v>0.4819354488520915</v>
@@ -964,487 +1191,676 @@
         <v>0.5320081238190516</v>
       </c>
       <c r="Q12">
-        <v>0.5576995894002658</v>
+        <v>0.55769958940026576</v>
       </c>
       <c r="R12">
         <v>0.5684728351833066</v>
       </c>
       <c r="S12">
-        <v>0.5870861500398776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>0.58708615003987763</v>
+      </c>
+      <c r="T12">
+        <v>0.68097417599999999</v>
+      </c>
+      <c r="U12">
+        <v>0.91891745499999999</v>
+      </c>
+      <c r="V12">
+        <v>0.95263052800000003</v>
+      </c>
+      <c r="W12">
+        <v>0.96528274400000003</v>
+      </c>
+      <c r="X12">
+        <v>0.96835951600000003</v>
+      </c>
+      <c r="Y12">
+        <v>0.97864129499999997</v>
+      </c>
+      <c r="Z12">
+        <v>0.98122567400000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>0.007913916215518586</v>
+        <v>7.9139162155185856E-3</v>
       </c>
       <c r="C13">
-        <v>-0.005918361658902312</v>
+        <v>-5.9183616589023116E-3</v>
       </c>
       <c r="D13">
-        <v>-0.003191899608731439</v>
+        <v>-3.1918996087314392E-3</v>
       </c>
       <c r="E13">
-        <v>0.003587521524402326</v>
+        <v>3.587521524402326E-3</v>
       </c>
       <c r="F13">
-        <v>-0.0003991062822958794</v>
+        <v>-3.9910628229587942E-4</v>
       </c>
       <c r="G13">
-        <v>0.0154765632442614</v>
+        <v>1.54765632442614E-2</v>
       </c>
       <c r="H13">
-        <v>0.03135547496025636</v>
+        <v>3.1355474960256362E-2</v>
       </c>
       <c r="I13">
-        <v>0.07746326956502678</v>
+        <v>7.7463269565026777E-2</v>
       </c>
       <c r="J13">
-        <v>0.18085283478652</v>
+        <v>0.18085283478652001</v>
       </c>
       <c r="K13">
-        <v>0.2885478057329732</v>
+        <v>0.28854780573297317</v>
       </c>
       <c r="L13">
-        <v>0.3720813854413665</v>
+        <v>0.37208138544136649</v>
       </c>
       <c r="M13">
         <v>0.4274395175426513</v>
       </c>
       <c r="N13">
-        <v>0.4768332635861908</v>
+        <v>0.47683326358619083</v>
       </c>
       <c r="O13">
-        <v>0.5059444920750995</v>
+        <v>0.50594449207509951</v>
       </c>
       <c r="P13">
-        <v>0.5254949076894325</v>
+        <v>0.52549490768943252</v>
       </c>
       <c r="Q13">
-        <v>0.5484140706890479</v>
+        <v>0.54841407068904791</v>
       </c>
       <c r="R13">
-        <v>0.5603617247397819</v>
+        <v>0.56036172473978185</v>
       </c>
       <c r="S13">
-        <v>0.5786538687967479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>0.57865386879674785</v>
+      </c>
+      <c r="T13">
+        <v>0.66819741799999999</v>
+      </c>
+      <c r="U13">
+        <v>0.91613760600000005</v>
+      </c>
+      <c r="V13">
+        <v>0.95172552700000002</v>
+      </c>
+      <c r="W13">
+        <v>0.96585185500000004</v>
+      </c>
+      <c r="X13">
+        <v>0.9674895</v>
+      </c>
+      <c r="Y13">
+        <v>0.97763095099999997</v>
+      </c>
+      <c r="Z13">
+        <v>0.98043665099999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B14">
-        <v>0.006321658712297772</v>
+        <v>6.3216587122977719E-3</v>
       </c>
       <c r="C14">
-        <v>0.002942954258788782</v>
+        <v>2.9429542587887819E-3</v>
       </c>
       <c r="D14">
-        <v>0.000842701433271495</v>
+        <v>8.4270143327149502E-4</v>
       </c>
       <c r="E14">
-        <v>0.00548788853385406</v>
+        <v>5.4878885338540597E-3</v>
       </c>
       <c r="F14">
-        <v>-0.005072676346209689</v>
+        <v>-5.0726763462096893E-3</v>
       </c>
       <c r="G14">
-        <v>0.01090678026071732</v>
+        <v>1.0906780260717321E-2</v>
       </c>
       <c r="H14">
-        <v>0.02621791759868727</v>
+        <v>2.621791759868727E-2</v>
       </c>
       <c r="I14">
-        <v>0.06752076616234232</v>
+        <v>6.7520766162342316E-2</v>
       </c>
       <c r="J14">
-        <v>0.1713089511815019</v>
+        <v>0.17130895118150191</v>
       </c>
       <c r="K14">
-        <v>0.2828431211418281</v>
+        <v>0.28284312114182808</v>
       </c>
       <c r="L14">
-        <v>0.36012917658187</v>
+        <v>0.36012917658186999</v>
       </c>
       <c r="M14">
-        <v>0.4197375279829993</v>
+        <v>0.41973752798299929</v>
       </c>
       <c r="N14">
-        <v>0.46951295503167</v>
+        <v>0.46951295503167001</v>
       </c>
       <c r="O14">
-        <v>0.496986785962468</v>
+        <v>0.49698678596246798</v>
       </c>
       <c r="P14">
-        <v>0.5113975820193964</v>
+        <v>0.51139758201939645</v>
       </c>
       <c r="Q14">
-        <v>0.5384245994026265</v>
+        <v>0.53842459940262655</v>
       </c>
       <c r="R14">
         <v>0.5551382275930139</v>
       </c>
       <c r="S14">
-        <v>0.5692986024179418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>0.56929860241794183</v>
+      </c>
+      <c r="T14">
+        <v>0.67306392999999998</v>
+      </c>
+      <c r="U14">
+        <v>0.91522765299999997</v>
+      </c>
+      <c r="V14">
+        <v>0.94975230399999999</v>
+      </c>
+      <c r="W14">
+        <v>0.96488516700000004</v>
+      </c>
+      <c r="X14">
+        <v>0.96683881999999999</v>
+      </c>
+      <c r="Y14">
+        <v>0.97717886200000004</v>
+      </c>
+      <c r="Z14">
+        <v>0.98030238800000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B15">
-        <v>0.0001523669111859847</v>
+        <v>1.5236691118598471E-4</v>
       </c>
       <c r="C15">
-        <v>0.0007092691283899983</v>
+        <v>7.0926912838999829E-4</v>
       </c>
       <c r="D15">
-        <v>-0.005996588933406109</v>
+        <v>-5.9965889334061091E-3</v>
       </c>
       <c r="E15">
-        <v>0.0005858943307239834</v>
+        <v>5.8589433072398335E-4</v>
       </c>
       <c r="F15">
-        <v>-0.002436638140568085</v>
+        <v>-2.436638140568085E-3</v>
       </c>
       <c r="G15">
-        <v>0.00996537279219261</v>
+        <v>9.9653727921926102E-3</v>
       </c>
       <c r="H15">
-        <v>0.02089169874114722</v>
+        <v>2.089169874114722E-2</v>
       </c>
       <c r="I15">
-        <v>0.05529846972345307</v>
+        <v>5.5298469723453071E-2</v>
       </c>
       <c r="J15">
         <v>0.1625665847375678</v>
       </c>
       <c r="K15">
-        <v>0.2711123815523629</v>
+        <v>0.27111238155236289</v>
       </c>
       <c r="L15">
-        <v>0.3573178771039109</v>
+        <v>0.35731787710391089</v>
       </c>
       <c r="M15">
-        <v>0.4064155807818985</v>
+        <v>0.40641558078189849</v>
       </c>
       <c r="N15">
-        <v>0.4631255610151827</v>
+        <v>0.46312556101518271</v>
       </c>
       <c r="O15">
-        <v>0.4882133001128394</v>
+        <v>0.48821330011283942</v>
       </c>
       <c r="P15">
-        <v>0.5106161827770795</v>
+        <v>0.51061618277707954</v>
       </c>
       <c r="Q15">
-        <v>0.5300741594484686</v>
+        <v>0.53007415944846858</v>
       </c>
       <c r="R15">
         <v>0.5486104779603177</v>
       </c>
       <c r="S15">
-        <v>0.567829758561132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>0.56782975856113205</v>
+      </c>
+      <c r="T15">
+        <v>0.66819203299999996</v>
+      </c>
+      <c r="U15">
+        <v>0.91280942700000001</v>
+      </c>
+      <c r="V15">
+        <v>0.95043999400000001</v>
+      </c>
+      <c r="W15">
+        <v>0.96404442099999998</v>
+      </c>
+      <c r="X15">
+        <v>0.96674386800000001</v>
+      </c>
+      <c r="Y15">
+        <v>0.97667110700000004</v>
+      </c>
+      <c r="Z15">
+        <v>0.97888572200000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>-0.006025332869639216</v>
+        <v>-6.0253328696392161E-3</v>
       </c>
       <c r="C16">
-        <v>0.002962788934322428</v>
+        <v>2.9627889343224281E-3</v>
       </c>
       <c r="D16">
-        <v>-0.002990613133502272</v>
+        <v>-2.9906131335022722E-3</v>
       </c>
       <c r="E16">
-        <v>0.002156868327443703</v>
+        <v>2.1568683274437029E-3</v>
       </c>
       <c r="F16">
-        <v>-0.003938837480911265</v>
+        <v>-3.9388374809112654E-3</v>
       </c>
       <c r="G16">
-        <v>0.006667518932216913</v>
+        <v>6.6675189322169129E-3</v>
       </c>
       <c r="H16">
-        <v>0.01665126603845681</v>
+        <v>1.6651266038456809E-2</v>
       </c>
       <c r="I16">
-        <v>0.05073235313063702</v>
+        <v>5.0732353130637023E-2</v>
       </c>
       <c r="J16">
-        <v>0.1558058229842464</v>
+        <v>0.15580582298424639</v>
       </c>
       <c r="K16">
-        <v>0.2633353357628709</v>
+        <v>0.26333533576287088</v>
       </c>
       <c r="L16">
         <v>0.3405668153358728</v>
       </c>
       <c r="M16">
-        <v>0.4016670994612475</v>
+        <v>0.40166709946124751</v>
       </c>
       <c r="N16">
-        <v>0.4518205328569231</v>
+        <v>0.45182053285692308</v>
       </c>
       <c r="O16">
         <v>0.4826905782014409</v>
       </c>
       <c r="P16">
-        <v>0.5029117334496708</v>
+        <v>0.50291173344967077</v>
       </c>
       <c r="Q16">
-        <v>0.5248376915022435</v>
+        <v>0.52483769150224346</v>
       </c>
       <c r="R16">
-        <v>0.5431923182656319</v>
+        <v>0.54319231826563186</v>
       </c>
       <c r="S16">
-        <v>0.5593152568250989</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19">
+        <v>0.55931525682509886</v>
+      </c>
+      <c r="T16">
+        <v>0.67021167999999998</v>
+      </c>
+      <c r="U16">
+        <v>0.90981304299999999</v>
+      </c>
+      <c r="V16">
+        <v>0.94989749099999998</v>
+      </c>
+      <c r="W16">
+        <v>0.96373903999999999</v>
+      </c>
+      <c r="X16">
+        <v>0.96569436500000005</v>
+      </c>
+      <c r="Y16">
+        <v>0.97647552100000001</v>
+      </c>
+      <c r="Z16">
+        <v>0.97944151499999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>-0.004104436569624982</v>
+        <v>-4.1044365696249821E-3</v>
       </c>
       <c r="C17">
-        <v>0.002188202234097866</v>
+        <v>2.1882022340978659E-3</v>
       </c>
       <c r="D17">
-        <v>-0.005615684818091346</v>
+        <v>-5.6156848180913457E-3</v>
       </c>
       <c r="E17">
-        <v>0.0005304385720465512</v>
+        <v>5.3043857204655123E-4</v>
       </c>
       <c r="F17">
-        <v>-0.000172111558500923</v>
+        <v>-1.7211155850092299E-4</v>
       </c>
       <c r="G17">
-        <v>0.009741435724055876</v>
+        <v>9.7414357240558757E-3</v>
       </c>
       <c r="H17">
-        <v>0.0111643836604821</v>
+        <v>1.11643836604821E-2</v>
       </c>
       <c r="I17">
-        <v>0.04764829559463885</v>
+        <v>4.7648295594638852E-2</v>
       </c>
       <c r="J17">
-        <v>0.1483301934232056</v>
+        <v>0.14833019342320561</v>
       </c>
       <c r="K17">
-        <v>0.2531932638154</v>
+        <v>0.25319326381540003</v>
       </c>
       <c r="L17">
         <v>0.3406809652501977</v>
       </c>
       <c r="M17">
-        <v>0.39170620047383</v>
+        <v>0.39170620047382998</v>
       </c>
       <c r="N17">
-        <v>0.4480538002805831</v>
+        <v>0.44805380028058311</v>
       </c>
       <c r="O17">
-        <v>0.4722581632738465</v>
+        <v>0.47225816327384651</v>
       </c>
       <c r="P17">
-        <v>0.4921674849024211</v>
+        <v>0.49216748490242113</v>
       </c>
       <c r="Q17">
-        <v>0.5169729581811773</v>
+        <v>0.51697295818117728</v>
       </c>
       <c r="R17">
-        <v>0.5352838189440726</v>
+        <v>0.53528381894407262</v>
       </c>
       <c r="S17">
-        <v>0.5520496343095175</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19">
+        <v>0.55204963430951748</v>
+      </c>
+      <c r="T17">
+        <v>0.65920873300000005</v>
+      </c>
+      <c r="U17">
+        <v>0.90956173100000004</v>
+      </c>
+      <c r="V17">
+        <v>0.94991896099999995</v>
+      </c>
+      <c r="W17">
+        <v>0.96271398200000002</v>
+      </c>
+      <c r="X17">
+        <v>0.96539040399999998</v>
+      </c>
+      <c r="Y17">
+        <v>0.97511500799999995</v>
+      </c>
+      <c r="Z17">
+        <v>0.97985138400000005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>4.436105319067577e-05</v>
+        <v>4.4361053190675772E-5</v>
       </c>
       <c r="C18">
-        <v>-0.0009582433830131464</v>
+        <v>-9.5824338301314638E-4</v>
       </c>
       <c r="D18">
-        <v>0.004572998991389007</v>
+        <v>4.5729989913890073E-3</v>
       </c>
       <c r="E18">
-        <v>-0.004649563335131695</v>
+        <v>-4.6495633351316948E-3</v>
       </c>
       <c r="F18">
-        <v>-0.001489539569116694</v>
+        <v>-1.4895395691166941E-3</v>
       </c>
       <c r="G18">
-        <v>0.004365814872302433</v>
+        <v>4.3658148723024334E-3</v>
       </c>
       <c r="H18">
-        <v>0.01270937416496525</v>
+        <v>1.2709374164965251E-2</v>
       </c>
       <c r="I18">
-        <v>0.04387904898854298</v>
+        <v>4.387904898854298E-2</v>
       </c>
       <c r="J18">
-        <v>0.1399180487590168</v>
+        <v>0.13991804875901681</v>
       </c>
       <c r="K18">
         <v>0.2457971062854532</v>
       </c>
       <c r="L18">
-        <v>0.3310386573352445</v>
+        <v>0.33103865733524451</v>
       </c>
       <c r="M18">
-        <v>0.3901176680210814</v>
+        <v>0.39011766802108139</v>
       </c>
       <c r="N18">
-        <v>0.4415192989793491</v>
+        <v>0.44151929897934911</v>
       </c>
       <c r="O18">
-        <v>0.4665038151170289</v>
+        <v>0.46650381511702887</v>
       </c>
       <c r="P18">
-        <v>0.4886418953923204</v>
+        <v>0.48864189539232039</v>
       </c>
       <c r="Q18">
-        <v>0.5120208128736953</v>
+        <v>0.51202081287369527</v>
       </c>
       <c r="R18">
-        <v>0.5264859625170191</v>
+        <v>0.52648596251701907</v>
       </c>
       <c r="S18">
-        <v>0.5531379897477049</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19">
+        <v>0.55313798974770489</v>
+      </c>
+      <c r="T18">
+        <v>0.65776380700000003</v>
+      </c>
+      <c r="U18">
+        <v>0.91196957899999997</v>
+      </c>
+      <c r="V18">
+        <v>0.94872158399999995</v>
+      </c>
+      <c r="W18">
+        <v>0.96253158800000005</v>
+      </c>
+      <c r="X18">
+        <v>0.96469274599999999</v>
+      </c>
+      <c r="Y18">
+        <v>0.97549286499999999</v>
+      </c>
+      <c r="Z18">
+        <v>0.97864581699999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>0.004177759930002469</v>
+        <v>4.1777599300024688E-3</v>
       </c>
       <c r="C19">
-        <v>-0.002142828464198886</v>
+        <v>-2.1428284641988862E-3</v>
       </c>
       <c r="D19">
-        <v>0.0005646317239530462</v>
+        <v>5.6463172395304617E-4</v>
       </c>
       <c r="E19">
-        <v>-0.002772424035310333</v>
+        <v>-2.7724240353103331E-3</v>
       </c>
       <c r="F19">
-        <v>0.004613461449445883</v>
+        <v>4.6134614494458834E-3</v>
       </c>
       <c r="G19">
-        <v>0.001647184823025858</v>
+        <v>1.6471848230258581E-3</v>
       </c>
       <c r="H19">
-        <v>0.00818076735384725</v>
+        <v>8.1807673538472504E-3</v>
       </c>
       <c r="I19">
-        <v>0.03350102234250742</v>
+        <v>3.3501022342507417E-2</v>
       </c>
       <c r="J19">
-        <v>0.1346464892827307</v>
+        <v>0.13464648928273071</v>
       </c>
       <c r="K19">
-        <v>0.2384381114686084</v>
+        <v>0.23843811146860841</v>
       </c>
       <c r="L19">
-        <v>0.3229472340552412</v>
+        <v>0.32294723405524117</v>
       </c>
       <c r="M19">
-        <v>0.3838467910872447</v>
+        <v>0.38384679108724468</v>
       </c>
       <c r="N19">
-        <v>0.4427596452462961</v>
+        <v>0.44275964524629607</v>
       </c>
       <c r="O19">
-        <v>0.460691349220006</v>
+        <v>0.46069134922000599</v>
       </c>
       <c r="P19">
-        <v>0.4846833641425795</v>
+        <v>0.48468336414257951</v>
       </c>
       <c r="Q19">
-        <v>0.5060530243771966</v>
+        <v>0.50605302437719657</v>
       </c>
       <c r="R19">
-        <v>0.5257023203267809</v>
+        <v>0.52570232032678088</v>
       </c>
       <c r="S19">
-        <v>0.545363728790184</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19">
+        <v>0.54536372879018402</v>
+      </c>
+      <c r="T19">
+        <v>0.65349781799999995</v>
+      </c>
+      <c r="U19">
+        <v>0.90632517999999995</v>
+      </c>
+      <c r="V19">
+        <v>0.94851378399999997</v>
+      </c>
+      <c r="W19">
+        <v>0.96148668100000001</v>
+      </c>
+      <c r="X19">
+        <v>0.96526611600000001</v>
+      </c>
+      <c r="Y19">
+        <v>0.97497370699999997</v>
+      </c>
+      <c r="Z19">
+        <v>0.97897221499999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>-0.003887999171907441</v>
+        <v>-3.887999171907441E-3</v>
       </c>
       <c r="C20">
-        <v>-0.002906521285414875</v>
+        <v>-2.9065212854148749E-3</v>
       </c>
       <c r="D20">
-        <v>0.002343989432901748</v>
+        <v>2.3439894329017482E-3</v>
       </c>
       <c r="E20">
-        <v>0.003051447469316979</v>
+        <v>3.051447469316979E-3</v>
       </c>
       <c r="F20">
-        <v>0.005132778394618509</v>
+        <v>5.132778394618509E-3</v>
       </c>
       <c r="G20">
-        <v>0.007771732491679628</v>
+        <v>7.7717324916796284E-3</v>
       </c>
       <c r="H20">
-        <v>0.01179034131039982</v>
+        <v>1.179034131039982E-2</v>
       </c>
       <c r="I20">
-        <v>0.03164235189936848</v>
+        <v>3.1642351899368482E-2</v>
       </c>
       <c r="J20">
-        <v>0.1299650543739179</v>
+        <v>0.12996505437391789</v>
       </c>
       <c r="K20">
-        <v>0.2384435543766217</v>
+        <v>0.23844355437662171</v>
       </c>
       <c r="L20">
-        <v>0.3230133355159094</v>
+        <v>0.32301333551590938</v>
       </c>
       <c r="M20">
-        <v>0.3816323361275616</v>
+        <v>0.38163233612756159</v>
       </c>
       <c r="N20">
-        <v>0.4281255705428778</v>
+        <v>0.42812557054287781</v>
       </c>
       <c r="O20">
-        <v>0.4602211463300593</v>
+        <v>0.46022114633005928</v>
       </c>
       <c r="P20">
-        <v>0.4796485444028371</v>
+        <v>0.47964854440283711</v>
       </c>
       <c r="Q20">
         <v>0.5047281461396278</v>
       </c>
       <c r="R20">
-        <v>0.5214909255521037</v>
+        <v>0.52149092555210375</v>
       </c>
       <c r="S20">
-        <v>0.5420766492954222</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19">
+        <v>0.54207664929542221</v>
+      </c>
+      <c r="T20">
+        <v>0.657176384</v>
+      </c>
+      <c r="U20">
+        <v>0.90255110100000002</v>
+      </c>
+      <c r="V20">
+        <v>0.94660246400000003</v>
+      </c>
+      <c r="W20">
+        <v>0.96018441899999996</v>
+      </c>
+      <c r="X20">
+        <v>0.96390194299999998</v>
+      </c>
+      <c r="Y20">
+        <v>0.97468713299999998</v>
+      </c>
+      <c r="Z20">
+        <v>0.97870668800000005</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B21">
-        <v>0.004590097317791864</v>
+        <v>4.5900973177918636E-3</v>
       </c>
       <c r="C21">
-        <v>-0.001313991333859163</v>
+        <v>-1.313991333859163E-3</v>
       </c>
       <c r="D21">
-        <v>-0.002014805782319629</v>
+        <v>-2.0148057823196289E-3</v>
       </c>
       <c r="E21">
-        <v>0.005403159574763443</v>
+        <v>5.4031595747634428E-3</v>
       </c>
       <c r="F21">
-        <v>0.004535456746919054</v>
+        <v>4.5354567469190537E-3</v>
       </c>
       <c r="G21">
-        <v>0.00230650532033624</v>
+        <v>2.3065053203362401E-3</v>
       </c>
       <c r="H21">
-        <v>0.005398409970903232</v>
+        <v>5.3984099709032318E-3</v>
       </c>
       <c r="I21">
-        <v>0.02552524794237764</v>
+        <v>2.5525247942377639E-2</v>
       </c>
       <c r="J21">
         <v>0.1246055361359876</v>
@@ -1453,915 +1869,1251 @@
         <v>0.2318076545058253</v>
       </c>
       <c r="L21">
-        <v>0.3188950904487103</v>
+        <v>0.31889509044871028</v>
       </c>
       <c r="M21">
-        <v>0.3733056156214108</v>
+        <v>0.37330561562141079</v>
       </c>
       <c r="N21">
-        <v>0.4269801913361629</v>
+        <v>0.42698019133616288</v>
       </c>
       <c r="O21">
-        <v>0.4484846330817359</v>
+        <v>0.44848463308173592</v>
       </c>
       <c r="P21">
-        <v>0.4736435128329587</v>
+        <v>0.47364351283295869</v>
       </c>
       <c r="Q21">
-        <v>0.4988708328448562</v>
+        <v>0.49887083284485623</v>
       </c>
       <c r="R21">
-        <v>0.5162984206557624</v>
+        <v>0.51629842065576237</v>
       </c>
       <c r="S21">
-        <v>0.5322048309809914</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19">
+        <v>0.53220483098099136</v>
+      </c>
+      <c r="T21">
+        <v>0.65143821000000002</v>
+      </c>
+      <c r="U21">
+        <v>0.90567582599999996</v>
+      </c>
+      <c r="V21">
+        <v>0.94817615499999996</v>
+      </c>
+      <c r="W21">
+        <v>0.96044442699999999</v>
+      </c>
+      <c r="X21">
+        <v>0.96391459700000004</v>
+      </c>
+      <c r="Y21">
+        <v>0.97473390900000001</v>
+      </c>
+      <c r="Z21">
+        <v>0.97860389999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B22">
-        <v>0.001749861547106365</v>
+        <v>1.7498615471063649E-3</v>
       </c>
       <c r="C22">
-        <v>0.005027696958563853</v>
+        <v>5.0276969585638532E-3</v>
       </c>
       <c r="D22">
-        <v>0.0008659633549403334</v>
+        <v>8.6596335494033339E-4</v>
       </c>
       <c r="E22">
-        <v>-0.0004684882533923193</v>
+        <v>-4.6848825339231931E-4</v>
       </c>
       <c r="F22">
-        <v>-0.0009813696046863012</v>
+        <v>-9.813696046863012E-4</v>
       </c>
       <c r="G22">
-        <v>0.005075142118757553</v>
+        <v>5.0751421187575528E-3</v>
       </c>
       <c r="H22">
-        <v>0.006753569230208331</v>
+        <v>6.7535692302083308E-3</v>
       </c>
       <c r="I22">
-        <v>0.02567847148185442</v>
+        <v>2.5678471481854419E-2</v>
       </c>
       <c r="J22">
-        <v>0.1168309042398084</v>
+        <v>0.11683090423980839</v>
       </c>
       <c r="K22">
-        <v>0.2240330933480016</v>
+        <v>0.22403309334800159</v>
       </c>
       <c r="L22">
-        <v>0.3158699890975064</v>
+        <v>0.31586998909750641</v>
       </c>
       <c r="M22">
-        <v>0.3703887768593869</v>
+        <v>0.37038877685938693</v>
       </c>
       <c r="N22">
-        <v>0.4213154985213027</v>
+        <v>0.42131549852130268</v>
       </c>
       <c r="O22">
-        <v>0.4509614720756097</v>
+        <v>0.45096147207560972</v>
       </c>
       <c r="P22">
-        <v>0.4749263129454641</v>
+        <v>0.47492631294546411</v>
       </c>
       <c r="Q22">
-        <v>0.4972559865727617</v>
+        <v>0.49725598657276171</v>
       </c>
       <c r="R22">
-        <v>0.5123349482660577</v>
+        <v>0.51233494826605774</v>
       </c>
       <c r="S22">
-        <v>0.5327195298287334</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19">
+        <v>0.53271952982873338</v>
+      </c>
+      <c r="T22">
+        <v>0.65624826199999997</v>
+      </c>
+      <c r="U22">
+        <v>0.90557154399999995</v>
+      </c>
+      <c r="V22">
+        <v>0.94631369600000004</v>
+      </c>
+      <c r="W22">
+        <v>0.96015723500000005</v>
+      </c>
+      <c r="X22">
+        <v>0.96268422099999995</v>
+      </c>
+      <c r="Y22">
+        <v>0.97462332699999998</v>
+      </c>
+      <c r="Z22">
+        <v>0.97799398199999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B23">
-        <v>0.007084853000997246</v>
+        <v>7.084853000997246E-3</v>
       </c>
       <c r="C23">
-        <v>-0.001327868457177027</v>
+        <v>-1.327868457177027E-3</v>
       </c>
       <c r="D23">
-        <v>0.006247566436257996</v>
+        <v>6.2475664362579963E-3</v>
       </c>
       <c r="E23">
-        <v>0.001353784191646471</v>
+        <v>1.3537841916464711E-3</v>
       </c>
       <c r="F23">
-        <v>-0.001960163097587393</v>
+        <v>-1.960163097587393E-3</v>
       </c>
       <c r="G23">
-        <v>0.002774605348132969</v>
+        <v>2.7746053481329689E-3</v>
       </c>
       <c r="H23">
-        <v>0.005088571694493601</v>
+        <v>5.0885716944936007E-3</v>
       </c>
       <c r="I23">
-        <v>0.02717284861551637</v>
+        <v>2.717284861551637E-2</v>
       </c>
       <c r="J23">
         <v>0.1101077256367705</v>
       </c>
       <c r="K23">
-        <v>0.22672400575746</v>
+        <v>0.22672400575745999</v>
       </c>
       <c r="L23">
-        <v>0.3054024548324736</v>
+        <v>0.30540245483247358</v>
       </c>
       <c r="M23">
-        <v>0.3694213299714774</v>
+        <v>0.36942132997147742</v>
       </c>
       <c r="N23">
-        <v>0.4193615073427578</v>
+        <v>0.41936150734275779</v>
       </c>
       <c r="O23">
-        <v>0.4444514446735959</v>
+        <v>0.44445144467359587</v>
       </c>
       <c r="P23">
-        <v>0.4663533122094169</v>
+        <v>0.46635331220941689</v>
       </c>
       <c r="Q23">
-        <v>0.4892249210086977</v>
+        <v>0.48922492100869769</v>
       </c>
       <c r="R23">
-        <v>0.5125928914441494</v>
+        <v>0.51259289144414943</v>
       </c>
       <c r="S23">
-        <v>0.5284870429804345</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19">
+        <v>0.52848704298043447</v>
+      </c>
+      <c r="T23">
+        <v>0.63716651700000004</v>
+      </c>
+      <c r="U23">
+        <v>0.90164397799999996</v>
+      </c>
+      <c r="V23">
+        <v>0.94501077300000003</v>
+      </c>
+      <c r="W23">
+        <v>0.96034312399999999</v>
+      </c>
+      <c r="X23">
+        <v>0.96158528300000001</v>
+      </c>
+      <c r="Y23">
+        <v>0.97383223799999996</v>
+      </c>
+      <c r="Z23">
+        <v>0.97893037400000005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>-0.001044339236688221</v>
+        <v>-1.0443392366882209E-3</v>
       </c>
       <c r="C24">
-        <v>0.009094555223691785</v>
+        <v>9.0945552236917845E-3</v>
       </c>
       <c r="D24">
-        <v>-0.0008999958838372544</v>
+        <v>-8.9999588383725437E-4</v>
       </c>
       <c r="E24">
-        <v>0.0006505573667585576</v>
+        <v>6.5055736675855762E-4</v>
       </c>
       <c r="F24">
-        <v>0.002019213126192339</v>
+        <v>2.0192131261923389E-3</v>
       </c>
       <c r="G24">
-        <v>0.0005624858392418318</v>
+        <v>5.6248583924183178E-4</v>
       </c>
       <c r="H24">
-        <v>-0.002181778575251915</v>
+        <v>-2.1817785752519152E-3</v>
       </c>
       <c r="I24">
-        <v>0.02213058551456059</v>
+        <v>2.213058551456059E-2</v>
       </c>
       <c r="J24">
         <v>0.1009471924849835</v>
       </c>
       <c r="K24">
-        <v>0.2215063207397641</v>
+        <v>0.22150632073976409</v>
       </c>
       <c r="L24">
-        <v>0.3044314140867108</v>
+        <v>0.30443141408671082</v>
       </c>
       <c r="M24">
-        <v>0.3627100029500995</v>
+        <v>0.36271000295009947</v>
       </c>
       <c r="N24">
-        <v>0.4140387361824461</v>
+        <v>0.41403873618244608</v>
       </c>
       <c r="O24">
-        <v>0.4420199601660857</v>
+        <v>0.44201996016608569</v>
       </c>
       <c r="P24">
-        <v>0.4638896722247411</v>
+        <v>0.46388967222474109</v>
       </c>
       <c r="Q24">
-        <v>0.4899420440692347</v>
+        <v>0.48994204406923469</v>
       </c>
       <c r="R24">
-        <v>0.5088286734362023</v>
+        <v>0.50882867343620231</v>
       </c>
       <c r="S24">
-        <v>0.5214805944596496</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19">
+        <v>0.52148059445964956</v>
+      </c>
+      <c r="T24">
+        <v>0.64364078999999996</v>
+      </c>
+      <c r="U24">
+        <v>0.90054135300000004</v>
+      </c>
+      <c r="V24">
+        <v>0.94537905099999997</v>
+      </c>
+      <c r="W24">
+        <v>0.95902492800000005</v>
+      </c>
+      <c r="X24">
+        <v>0.96295791399999997</v>
+      </c>
+      <c r="Y24">
+        <v>0.97414413799999999</v>
+      </c>
+      <c r="Z24">
+        <v>0.97760714299999996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B25">
-        <v>-0.005239237022187201</v>
+        <v>-5.2392370221872007E-3</v>
       </c>
       <c r="C25">
-        <v>0.003650908531040711</v>
+        <v>3.650908531040711E-3</v>
       </c>
       <c r="D25">
-        <v>-0.004253231148498357</v>
+        <v>-4.2532311484983574E-3</v>
       </c>
       <c r="E25">
-        <v>0.0005300542983318178</v>
+        <v>5.3005429833181776E-4</v>
       </c>
       <c r="F25">
-        <v>0.004925202571946177</v>
+        <v>4.9252025719461771E-3</v>
       </c>
       <c r="G25">
-        <v>-0.007069520014963246</v>
+        <v>-7.0695200149632461E-3</v>
       </c>
       <c r="H25">
-        <v>-0.001486344056994312</v>
+        <v>-1.486344056994312E-3</v>
       </c>
       <c r="I25">
-        <v>0.02257508674616648</v>
+        <v>2.257508674616648E-2</v>
       </c>
       <c r="J25">
-        <v>0.0994493478303915</v>
+        <v>9.9449347830391499E-2</v>
       </c>
       <c r="K25">
         <v>0.2207203033917105</v>
       </c>
       <c r="L25">
-        <v>0.2964853027365035</v>
+        <v>0.29648530273650348</v>
       </c>
       <c r="M25">
-        <v>0.3584886579583484</v>
+        <v>0.35848865795834839</v>
       </c>
       <c r="N25">
-        <v>0.4153150809077649</v>
+        <v>0.41531508090776492</v>
       </c>
       <c r="O25">
-        <v>0.4378902925550137</v>
+        <v>0.43789029255501372</v>
       </c>
       <c r="P25">
-        <v>0.4651068899078485</v>
+        <v>0.46510688990784849</v>
       </c>
       <c r="Q25">
-        <v>0.4832128127723083</v>
+        <v>0.48321281277230832</v>
       </c>
       <c r="R25">
-        <v>0.4995469682629199</v>
+        <v>0.49954696826291989</v>
       </c>
       <c r="S25">
-        <v>0.518976545863334</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19">
+        <v>0.51897654586333397</v>
+      </c>
+      <c r="T25">
+        <v>0.63622942800000004</v>
+      </c>
+      <c r="U25">
+        <v>0.902775879</v>
+      </c>
+      <c r="V25">
+        <v>0.94535111500000002</v>
+      </c>
+      <c r="W25">
+        <v>0.95846163799999995</v>
+      </c>
+      <c r="X25">
+        <v>0.96122964899999996</v>
+      </c>
+      <c r="Y25">
+        <v>0.97401038100000004</v>
+      </c>
+      <c r="Z25">
+        <v>0.97786837400000004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>-0.001038799387392829</v>
+        <v>-1.0387993873928289E-3</v>
       </c>
       <c r="C26">
-        <v>0.002356947544976806</v>
+        <v>2.3569475449768062E-3</v>
       </c>
       <c r="D26">
-        <v>0.002144929608726114</v>
+        <v>2.1449296087261141E-3</v>
       </c>
       <c r="E26">
-        <v>0.0007479743017319145</v>
+        <v>7.4797430173191451E-4</v>
       </c>
       <c r="F26">
-        <v>-0.006882927549478573</v>
+        <v>-6.8829275494785734E-3</v>
       </c>
       <c r="G26">
-        <v>-0.003754862673196326</v>
+        <v>-3.7548626731963258E-3</v>
       </c>
       <c r="H26">
-        <v>0.002129156566028997</v>
+        <v>2.1291565660289972E-3</v>
       </c>
       <c r="I26">
-        <v>0.01734976729320364</v>
+        <v>1.7349767293203641E-2</v>
       </c>
       <c r="J26">
-        <v>0.0986702107769588</v>
+        <v>9.8670210776958797E-2</v>
       </c>
       <c r="K26">
-        <v>0.2154922962980252</v>
+        <v>0.21549229629802519</v>
       </c>
       <c r="L26">
-        <v>0.2973829500360551</v>
+        <v>0.29738295003605508</v>
       </c>
       <c r="M26">
-        <v>0.3533564070096599</v>
+        <v>0.35335640700965992</v>
       </c>
       <c r="N26">
-        <v>0.4083975057932263</v>
+        <v>0.40839750579322631</v>
       </c>
       <c r="O26">
-        <v>0.4410360869177807</v>
+        <v>0.44103608691778068</v>
       </c>
       <c r="P26">
-        <v>0.4535852856405317</v>
+        <v>0.45358528564053169</v>
       </c>
       <c r="Q26">
-        <v>0.4831382360895304</v>
+        <v>0.48313823608953038</v>
       </c>
       <c r="R26">
-        <v>0.5012177441130427</v>
+        <v>0.50121774411304265</v>
       </c>
       <c r="S26">
         <v>0.5157935814755138</v>
       </c>
-    </row>
-    <row r="27" spans="2:19">
+      <c r="T26">
+        <v>0.64499697499999997</v>
+      </c>
+      <c r="U26">
+        <v>0.900700379</v>
+      </c>
+      <c r="V26">
+        <v>0.94639071200000002</v>
+      </c>
+      <c r="W26">
+        <v>0.95930795899999999</v>
+      </c>
+      <c r="X26">
+        <v>0.96090211000000003</v>
+      </c>
+      <c r="Y26">
+        <v>0.97367856799999997</v>
+      </c>
+      <c r="Z26">
+        <v>0.97747819199999997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>0.003733310789504597</v>
+        <v>3.7333107895045972E-3</v>
       </c>
       <c r="C27">
-        <v>0.0002387911742114829</v>
+        <v>2.3879117421148291E-4</v>
       </c>
       <c r="D27">
-        <v>0.005322902590394935</v>
+        <v>5.3229025903949352E-3</v>
       </c>
       <c r="E27">
-        <v>0.000107250139226362</v>
+        <v>1.07250139226362E-4</v>
       </c>
       <c r="F27">
-        <v>-0.005690074784759631</v>
+        <v>-5.6900747847596312E-3</v>
       </c>
       <c r="G27">
-        <v>-0.001499493487938236</v>
+        <v>-1.499493487938236E-3</v>
       </c>
       <c r="H27">
-        <v>-0.002244166763276864</v>
+        <v>-2.2441667632768642E-3</v>
       </c>
       <c r="I27">
-        <v>0.02154149727190972</v>
+        <v>2.154149727190972E-2</v>
       </c>
       <c r="J27">
-        <v>0.08761450748094027</v>
+        <v>8.7614507480940268E-2</v>
       </c>
       <c r="K27">
-        <v>0.2125281627216992</v>
+        <v>0.21252816272169919</v>
       </c>
       <c r="L27">
         <v>0.2953681920502107</v>
       </c>
       <c r="M27">
-        <v>0.3546056426502722</v>
+        <v>0.35460564265027222</v>
       </c>
       <c r="N27">
-        <v>0.4041991162656592</v>
+        <v>0.40419911626565919</v>
       </c>
       <c r="O27">
-        <v>0.4354076148207116</v>
+        <v>0.43540761482071161</v>
       </c>
       <c r="P27">
-        <v>0.4558590195658396</v>
+        <v>0.45585901956583957</v>
       </c>
       <c r="Q27">
-        <v>0.4790656459259474</v>
+        <v>0.47906564592594741</v>
       </c>
       <c r="R27">
-        <v>0.4960117131024849</v>
+        <v>0.49601171310248487</v>
       </c>
       <c r="S27">
-        <v>0.5124269228282224</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19">
+        <v>0.51242692282822244</v>
+      </c>
+      <c r="T27">
+        <v>0.63643255300000001</v>
+      </c>
+      <c r="U27">
+        <v>0.89866339799999995</v>
+      </c>
+      <c r="V27">
+        <v>0.94462121300000002</v>
+      </c>
+      <c r="W27">
+        <v>0.957556568</v>
+      </c>
+      <c r="X27">
+        <v>0.96155851800000003</v>
+      </c>
+      <c r="Y27">
+        <v>0.97356643499999995</v>
+      </c>
+      <c r="Z27">
+        <v>0.97819116800000006</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>0.004373445605269233</v>
+        <v>4.3734456052692333E-3</v>
       </c>
       <c r="C28">
-        <v>0.000427913228740085</v>
+        <v>4.2791322874008501E-4</v>
       </c>
       <c r="D28">
-        <v>6.337336662032003e-05</v>
+        <v>6.3373366620320031E-5</v>
       </c>
       <c r="E28">
-        <v>0.00354971628976287</v>
+        <v>3.54971628976287E-3</v>
       </c>
       <c r="F28">
-        <v>-0.007149653725977451</v>
+        <v>-7.1496537259774506E-3</v>
       </c>
       <c r="G28">
-        <v>-0.0008683809861607063</v>
+        <v>-8.6838098616070635E-4</v>
       </c>
       <c r="H28">
-        <v>0.0001367173356226488</v>
+        <v>1.367173356226488E-4</v>
       </c>
       <c r="I28">
-        <v>0.01780250156083523</v>
+        <v>1.7802501560835231E-2</v>
       </c>
       <c r="J28">
-        <v>0.08704816513765884</v>
+        <v>8.7048165137658839E-2</v>
       </c>
       <c r="K28">
         <v>0.2070003039218129</v>
       </c>
       <c r="L28">
-        <v>0.2908290011461068</v>
+        <v>0.29082900114610682</v>
       </c>
       <c r="M28">
-        <v>0.3488358237857573</v>
+        <v>0.34883582378575728</v>
       </c>
       <c r="N28">
-        <v>0.4036067499292149</v>
+        <v>0.40360674992921491</v>
       </c>
       <c r="O28">
         <v>0.4333552960603772</v>
       </c>
       <c r="P28">
-        <v>0.4535950605711788</v>
+        <v>0.45359506057117882</v>
       </c>
       <c r="Q28">
-        <v>0.4750559590241589</v>
+        <v>0.47505595902415892</v>
       </c>
       <c r="R28">
-        <v>0.4927366562074367</v>
+        <v>0.49273665620743667</v>
       </c>
       <c r="S28">
-        <v>0.5121422885176067</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19">
+        <v>0.51214228851760668</v>
+      </c>
+      <c r="T28">
+        <v>0.63992943899999999</v>
+      </c>
+      <c r="U28">
+        <v>0.89666708299999998</v>
+      </c>
+      <c r="V28">
+        <v>0.94364868899999998</v>
+      </c>
+      <c r="W28">
+        <v>0.95729487099999999</v>
+      </c>
+      <c r="X28">
+        <v>0.96187897700000002</v>
+      </c>
+      <c r="Y28">
+        <v>0.97294740499999999</v>
+      </c>
+      <c r="Z28">
+        <v>0.97703358299999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B29">
-        <v>0.002527461641876425</v>
+        <v>2.5274616418764248E-3</v>
       </c>
       <c r="C29">
-        <v>0.0001881201777016111</v>
+        <v>1.8812017770161111E-4</v>
       </c>
       <c r="D29">
-        <v>0.003023368330065121</v>
+        <v>3.0233683300651209E-3</v>
       </c>
       <c r="E29">
-        <v>0.0002615517273835716</v>
+        <v>2.6155172738357162E-4</v>
       </c>
       <c r="F29">
-        <v>7.819322221246994e-05</v>
+        <v>7.8193222212469943E-5</v>
       </c>
       <c r="G29">
-        <v>0.0002050403625801448</v>
+        <v>2.0504036258014481E-4</v>
       </c>
       <c r="H29">
-        <v>-0.001911600586440028</v>
+        <v>-1.9116005864400279E-3</v>
       </c>
       <c r="I29">
-        <v>0.00995059861346774</v>
+        <v>9.9505986134677399E-3</v>
       </c>
       <c r="J29">
-        <v>0.08627585868328731</v>
+        <v>8.6275858683287313E-2</v>
       </c>
       <c r="K29">
         <v>0.2064027663450321</v>
       </c>
       <c r="L29">
-        <v>0.2892199147516418</v>
+        <v>0.28921991475164183</v>
       </c>
       <c r="M29">
-        <v>0.3478453794277818</v>
+        <v>0.34784537942778182</v>
       </c>
       <c r="N29">
-        <v>0.4001066260277653</v>
+        <v>0.40010662602776531</v>
       </c>
       <c r="O29">
-        <v>0.4323065405118321</v>
+        <v>0.43230654051183209</v>
       </c>
       <c r="P29">
-        <v>0.4537405263410111</v>
+        <v>0.45374052634101109</v>
       </c>
       <c r="Q29">
-        <v>0.4730849121006268</v>
+        <v>0.47308491210062681</v>
       </c>
       <c r="R29">
-        <v>0.4910881785777332</v>
+        <v>0.49108817857773318</v>
       </c>
       <c r="S29">
-        <v>0.5042794739932221</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19">
+        <v>0.50427947399322215</v>
+      </c>
+      <c r="T29">
+        <v>0.63049560500000001</v>
+      </c>
+      <c r="U29">
+        <v>0.89547694799999999</v>
+      </c>
+      <c r="V29">
+        <v>0.94334584600000004</v>
+      </c>
+      <c r="W29">
+        <v>0.95661912000000004</v>
+      </c>
+      <c r="X29">
+        <v>0.96127702500000001</v>
+      </c>
+      <c r="Y29">
+        <v>0.97448018700000005</v>
+      </c>
+      <c r="Z29">
+        <v>0.97734031700000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>0.00712780853013885</v>
+        <v>7.1278085301388497E-3</v>
       </c>
       <c r="C30">
-        <v>-0.004446526457696596</v>
+        <v>-4.446526457696596E-3</v>
       </c>
       <c r="D30">
-        <v>0.002409322251506317</v>
+        <v>2.4093222515063168E-3</v>
       </c>
       <c r="E30">
-        <v>-0.001606032281558128</v>
+        <v>-1.606032281558128E-3</v>
       </c>
       <c r="F30">
-        <v>0.001423227004284178</v>
+        <v>1.423227004284178E-3</v>
       </c>
       <c r="G30">
-        <v>-0.002991388248932128</v>
+        <v>-2.9913882489321282E-3</v>
       </c>
       <c r="H30">
-        <v>-0.003259410740233504</v>
+        <v>-3.2594107402335042E-3</v>
       </c>
       <c r="I30">
-        <v>0.01113705368890414</v>
+        <v>1.113705368890414E-2</v>
       </c>
       <c r="J30">
-        <v>0.08752409673402596</v>
+        <v>8.7524096734025961E-2</v>
       </c>
       <c r="K30">
-        <v>0.1972539683209003</v>
+        <v>0.19725396832090031</v>
       </c>
       <c r="L30">
-        <v>0.2871016863161124</v>
+        <v>0.28710168631611238</v>
       </c>
       <c r="M30">
-        <v>0.3410873615115761</v>
+        <v>0.34108736151157609</v>
       </c>
       <c r="N30">
-        <v>0.398567745813546</v>
+        <v>0.39856774581354598</v>
       </c>
       <c r="O30">
-        <v>0.424367876527953</v>
+        <v>0.42436787652795299</v>
       </c>
       <c r="P30">
-        <v>0.4478666235280974</v>
+        <v>0.44786662352809742</v>
       </c>
       <c r="Q30">
-        <v>0.4696888346190053</v>
+        <v>0.46968883461900529</v>
       </c>
       <c r="R30">
-        <v>0.4880555504039111</v>
+        <v>0.48805555040391108</v>
       </c>
       <c r="S30">
-        <v>0.5083679257296576</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19">
+        <v>0.50836792572965761</v>
+      </c>
+      <c r="T30">
+        <v>0.638932265</v>
+      </c>
+      <c r="U30">
+        <v>0.89536128999999998</v>
+      </c>
+      <c r="V30">
+        <v>0.94484627700000001</v>
+      </c>
+      <c r="W30">
+        <v>0.95762113400000004</v>
+      </c>
+      <c r="X30">
+        <v>0.95940537999999997</v>
+      </c>
+      <c r="Y30">
+        <v>0.97279955500000004</v>
+      </c>
+      <c r="Z30">
+        <v>0.97772151699999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>0.005122815532450686</v>
+        <v>5.1228155324506862E-3</v>
       </c>
       <c r="C31">
-        <v>-0.006439565490431872</v>
+        <v>-6.4395654904318717E-3</v>
       </c>
       <c r="D31">
-        <v>0.003792433319178686</v>
+        <v>3.7924333191786861E-3</v>
       </c>
       <c r="E31">
-        <v>0.004129301421671193</v>
+        <v>4.1293014216711929E-3</v>
       </c>
       <c r="F31">
-        <v>-0.002764178250455935</v>
+        <v>-2.764178250455935E-3</v>
       </c>
       <c r="G31">
-        <v>0.0009617214919880523</v>
+        <v>9.6172149198805231E-4</v>
       </c>
       <c r="H31">
-        <v>-0.003419383595818294</v>
+        <v>-3.4193835958182938E-3</v>
       </c>
       <c r="I31">
-        <v>0.004231909453499608</v>
+        <v>4.2319094534996084E-3</v>
       </c>
       <c r="J31">
-        <v>0.08077110657092998</v>
+        <v>8.0771106570929979E-2</v>
       </c>
       <c r="K31">
         <v>0.1976561217588739</v>
       </c>
       <c r="L31">
-        <v>0.2820875533483443</v>
+        <v>0.28208755334834429</v>
       </c>
       <c r="M31">
-        <v>0.3396443135976753</v>
+        <v>0.33964431359767527</v>
       </c>
       <c r="N31">
-        <v>0.3968684207847126</v>
+        <v>0.39686842078471263</v>
       </c>
       <c r="O31">
-        <v>0.4296384679225215</v>
+        <v>0.42963846792252153</v>
       </c>
       <c r="P31">
         <v>0.4460756138669662</v>
       </c>
       <c r="Q31">
-        <v>0.4660291457956787</v>
+        <v>0.46602914579567872</v>
       </c>
       <c r="R31">
-        <v>0.4828457769271643</v>
+        <v>0.48284577692716429</v>
       </c>
       <c r="S31">
-        <v>0.499930957174856</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19">
+        <v>0.49993095717485603</v>
+      </c>
+      <c r="T31">
+        <v>0.63115122499999998</v>
+      </c>
+      <c r="U31">
+        <v>0.89519521199999996</v>
+      </c>
+      <c r="V31">
+        <v>0.94436054599999997</v>
+      </c>
+      <c r="W31">
+        <v>0.955939596</v>
+      </c>
+      <c r="X31">
+        <v>0.96022931</v>
+      </c>
+      <c r="Y31">
+        <v>0.97241227399999997</v>
+      </c>
+      <c r="Z31">
+        <v>0.97742125400000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>-0.00123883589780148</v>
+        <v>-1.2388358978014801E-3</v>
       </c>
       <c r="C32">
-        <v>0.002694117903197372</v>
+        <v>2.6941179031973721E-3</v>
       </c>
       <c r="D32">
-        <v>-0.0002590489765336193</v>
+        <v>-2.5904897653361933E-4</v>
       </c>
       <c r="E32">
-        <v>0.00794655024249824</v>
+        <v>7.9465502424982404E-3</v>
       </c>
       <c r="F32">
-        <v>-0.004656951169509101</v>
+        <v>-4.6569511695091007E-3</v>
       </c>
       <c r="G32">
-        <v>0.003740823939395251</v>
+        <v>3.7408239393952511E-3</v>
       </c>
       <c r="H32">
-        <v>-0.002375991780222048</v>
+        <v>-2.375991780222048E-3</v>
       </c>
       <c r="I32">
-        <v>0.01207896094634873</v>
+        <v>1.207896094634873E-2</v>
       </c>
       <c r="J32">
-        <v>0.0769486437500362</v>
+        <v>7.6948643750036197E-2</v>
       </c>
       <c r="K32">
         <v>0.1980980634300922</v>
       </c>
       <c r="L32">
-        <v>0.2848903027734709</v>
+        <v>0.28489030277347088</v>
       </c>
       <c r="M32">
-        <v>0.3419065103258129</v>
+        <v>0.34190651032581287</v>
       </c>
       <c r="N32">
-        <v>0.3906959149624956</v>
+        <v>0.39069591496249562</v>
       </c>
       <c r="O32">
-        <v>0.4197901311349054</v>
+        <v>0.41979013113490538</v>
       </c>
       <c r="P32">
-        <v>0.4415439052655817</v>
+        <v>0.44154390526558168</v>
       </c>
       <c r="Q32">
-        <v>0.4683850143539235</v>
+        <v>0.46838501435392349</v>
       </c>
       <c r="R32">
-        <v>0.48328664574146</v>
+        <v>0.48328664574146002</v>
       </c>
       <c r="S32">
-        <v>0.4982282401791573</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19">
+        <v>0.49822824017915729</v>
+      </c>
+      <c r="T32">
+        <v>0.63080891699999997</v>
+      </c>
+      <c r="U32">
+        <v>0.89936387600000001</v>
+      </c>
+      <c r="V32">
+        <v>0.94175745899999996</v>
+      </c>
+      <c r="W32">
+        <v>0.955580439</v>
+      </c>
+      <c r="X32">
+        <v>0.95960070500000005</v>
+      </c>
+      <c r="Y32">
+        <v>0.97386472099999999</v>
+      </c>
+      <c r="Z32">
+        <v>0.97758420700000004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>0.004754997150592988</v>
+        <v>4.7549971505929881E-3</v>
       </c>
       <c r="C33">
-        <v>0.00399552467938999</v>
+        <v>3.9955246793899899E-3</v>
       </c>
       <c r="D33">
-        <v>0.003163576736477543</v>
+        <v>3.163576736477543E-3</v>
       </c>
       <c r="E33">
-        <v>0.003576419172763548</v>
+        <v>3.5764191727635482E-3</v>
       </c>
       <c r="F33">
-        <v>0.002901026934667867</v>
+        <v>2.9010269346678671E-3</v>
       </c>
       <c r="G33">
-        <v>-0.002601399139427223</v>
+        <v>-2.6013991394272231E-3</v>
       </c>
       <c r="H33">
-        <v>-0.004525885482991486</v>
+        <v>-4.5258854829914857E-3</v>
       </c>
       <c r="I33">
-        <v>0.01604474415919239</v>
+        <v>1.6044744159192392E-2</v>
       </c>
       <c r="J33">
-        <v>0.07563185183282048</v>
+        <v>7.5631851832820479E-2</v>
       </c>
       <c r="K33">
         <v>0.1931597547051149</v>
       </c>
       <c r="L33">
-        <v>0.2777301834369482</v>
+        <v>0.27773018343694822</v>
       </c>
       <c r="M33">
-        <v>0.3390492811516608</v>
+        <v>0.33904928115166078</v>
       </c>
       <c r="N33">
         <v>0.3927390712273377</v>
       </c>
       <c r="O33">
-        <v>0.4138483219566872</v>
+        <v>0.41384832195668719</v>
       </c>
       <c r="P33">
-        <v>0.4398335864589354</v>
+        <v>0.43983358645893539</v>
       </c>
       <c r="Q33">
-        <v>0.4661200392607692</v>
+        <v>0.46612003926076923</v>
       </c>
       <c r="R33">
-        <v>0.4819851909589911</v>
+        <v>0.48198519095899112</v>
       </c>
       <c r="S33">
-        <v>0.4992658732281663</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19">
+        <v>0.49926587322816629</v>
+      </c>
+      <c r="T33">
+        <v>0.64118316500000005</v>
+      </c>
+      <c r="U33">
+        <v>0.89559455700000001</v>
+      </c>
+      <c r="V33">
+        <v>0.94008455199999996</v>
+      </c>
+      <c r="W33">
+        <v>0.95529184</v>
+      </c>
+      <c r="X33">
+        <v>0.95727309999999999</v>
+      </c>
+      <c r="Y33">
+        <v>0.97255442800000003</v>
+      </c>
+      <c r="Z33">
+        <v>0.97683419400000004</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>0.004355837350132181</v>
+        <v>4.3558373501321806E-3</v>
       </c>
       <c r="C34">
-        <v>-0.002515149097200258</v>
+        <v>-2.5151490972002582E-3</v>
       </c>
       <c r="D34">
-        <v>-0.00182178880164504</v>
+        <v>-1.82178880164504E-3</v>
       </c>
       <c r="E34">
-        <v>0.0004588180486643637</v>
+        <v>4.5881804866436371E-4</v>
       </c>
       <c r="F34">
-        <v>-0.001330737459839476</v>
+        <v>-1.330737459839476E-3</v>
       </c>
       <c r="G34">
-        <v>0.006260604580560808</v>
+        <v>6.2606045805608081E-3</v>
       </c>
       <c r="H34">
-        <v>0.003306005070799639</v>
+        <v>3.306005070799639E-3</v>
       </c>
       <c r="I34">
-        <v>0.00993720568114549</v>
+        <v>9.93720568114549E-3</v>
       </c>
       <c r="J34">
-        <v>0.07076568059019984</v>
+        <v>7.0765680590199845E-2</v>
       </c>
       <c r="K34">
         <v>0.1945159925980337</v>
       </c>
       <c r="L34">
-        <v>0.2743237468499152</v>
+        <v>0.27432374684991517</v>
       </c>
       <c r="M34">
         <v>0.3336329912767424</v>
       </c>
       <c r="N34">
-        <v>0.3880004722418202</v>
+        <v>0.38800047224182022</v>
       </c>
       <c r="O34">
-        <v>0.4215350612237462</v>
+        <v>0.42153506122374618</v>
       </c>
       <c r="P34">
-        <v>0.4404004302485078</v>
+        <v>0.44040043024850778</v>
       </c>
       <c r="Q34">
-        <v>0.4682884265785685</v>
+        <v>0.46828842657856851</v>
       </c>
       <c r="R34">
-        <v>0.4795164367992092</v>
+        <v>0.47951643679920919</v>
       </c>
       <c r="S34">
-        <v>0.4974296345466783</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19">
+        <v>0.49742963454667832</v>
+      </c>
+      <c r="T34">
+        <v>0.63268385699999996</v>
+      </c>
+      <c r="U34">
+        <v>0.89122307199999995</v>
+      </c>
+      <c r="V34">
+        <v>0.94161107399999999</v>
+      </c>
+      <c r="W34">
+        <v>0.95555707199999995</v>
+      </c>
+      <c r="X34">
+        <v>0.95847974000000002</v>
+      </c>
+      <c r="Y34">
+        <v>0.97381823099999998</v>
+      </c>
+      <c r="Z34">
+        <v>0.97758031599999995</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>0.003290199237742594</v>
+        <v>3.290199237742594E-3</v>
       </c>
       <c r="C35">
-        <v>-0.008050127326051683</v>
+        <v>-8.0501273260516829E-3</v>
       </c>
       <c r="D35">
-        <v>0.009410637228987105</v>
+        <v>9.4106372289871048E-3</v>
       </c>
       <c r="E35">
-        <v>-0.001028518700738897</v>
+        <v>-1.028518700738897E-3</v>
       </c>
       <c r="F35">
-        <v>0.003043523544331172</v>
+        <v>3.043523544331172E-3</v>
       </c>
       <c r="G35">
-        <v>0.0007882111816042619</v>
+        <v>7.8821118160426194E-4</v>
       </c>
       <c r="H35">
-        <v>-0.004875937990509606</v>
+        <v>-4.8759379905096061E-3</v>
       </c>
       <c r="I35">
-        <v>0.007245366195192476</v>
+        <v>7.2453661951924764E-3</v>
       </c>
       <c r="J35">
-        <v>0.0730382095524829</v>
+        <v>7.3038209552482899E-2</v>
       </c>
       <c r="K35">
         <v>0.1894855584310256</v>
       </c>
       <c r="L35">
-        <v>0.2773649330976528</v>
+        <v>0.27736493309765281</v>
       </c>
       <c r="M35">
-        <v>0.3337981969695615</v>
+        <v>0.33379819696956148</v>
       </c>
       <c r="N35">
-        <v>0.3883657347824143</v>
+        <v>0.38836573478241432</v>
       </c>
       <c r="O35">
-        <v>0.4216714871968221</v>
+        <v>0.42167148719682213</v>
       </c>
       <c r="P35">
-        <v>0.4401084912790535</v>
+        <v>0.44010849127905349</v>
       </c>
       <c r="Q35">
-        <v>0.4622093953385085</v>
+        <v>0.46220939533850852</v>
       </c>
       <c r="R35">
-        <v>0.4763363377392008</v>
+        <v>0.47633633773920081</v>
       </c>
       <c r="S35">
-        <v>0.4964336440712481</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19">
+        <v>0.49643364407124813</v>
+      </c>
+      <c r="T35">
+        <v>0.62842677000000002</v>
+      </c>
+      <c r="U35">
+        <v>0.89357809700000002</v>
+      </c>
+      <c r="V35">
+        <v>0.94241893099999996</v>
+      </c>
+      <c r="W35">
+        <v>0.95495165100000001</v>
+      </c>
+      <c r="X35">
+        <v>0.95890145999999998</v>
+      </c>
+      <c r="Y35">
+        <v>0.97188061299999995</v>
+      </c>
+      <c r="Z35">
+        <v>0.97655618600000005</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>-0.005611106886967837</v>
+        <v>-5.6111068869678371E-3</v>
       </c>
       <c r="C36">
-        <v>-0.0007386015607071192</v>
+        <v>-7.3860156070711916E-4</v>
       </c>
       <c r="D36">
-        <v>0.0003236267457377245</v>
+        <v>3.2362674573772448E-4</v>
       </c>
       <c r="E36">
-        <v>0.002387789214968771</v>
+        <v>2.3877892149687711E-3</v>
       </c>
       <c r="F36">
-        <v>0.002190882987181959</v>
+        <v>2.1908829871819589E-3</v>
       </c>
       <c r="G36">
-        <v>0.004340234873369772</v>
+        <v>4.3402348733697716E-3</v>
       </c>
       <c r="H36">
-        <v>0.001771428586251866</v>
+        <v>1.7714285862518661E-3</v>
       </c>
       <c r="I36">
-        <v>0.005325071811647053</v>
+        <v>5.3250718116470532E-3</v>
       </c>
       <c r="J36">
-        <v>0.06920984637369691</v>
+        <v>6.9209846373696912E-2</v>
       </c>
       <c r="K36">
         <v>0.1918724004289338</v>
       </c>
       <c r="L36">
-        <v>0.2741933878319587</v>
+        <v>0.27419338783195868</v>
       </c>
       <c r="M36">
-        <v>0.3275096231550471</v>
+        <v>0.32750962315504711</v>
       </c>
       <c r="N36">
-        <v>0.387323861963232</v>
+        <v>0.38732386196323199</v>
       </c>
       <c r="O36">
         <v>0.4136654285336519</v>
       </c>
       <c r="P36">
-        <v>0.4344336288910093</v>
+        <v>0.43443362889100928</v>
       </c>
       <c r="Q36">
-        <v>0.4574048514155714</v>
+        <v>0.45740485141557141</v>
       </c>
       <c r="R36">
         <v>0.4815046244579167</v>
       </c>
       <c r="S36">
-        <v>0.4954972914073486</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19">
+        <v>0.49549729140734861</v>
+      </c>
+      <c r="T36">
+        <v>0.61929170200000005</v>
+      </c>
+      <c r="U36">
+        <v>0.89629151600000001</v>
+      </c>
+      <c r="V36">
+        <v>0.94251154100000001</v>
+      </c>
+      <c r="W36">
+        <v>0.95549799999999996</v>
+      </c>
+      <c r="X36">
+        <v>0.95988254100000003</v>
+      </c>
+      <c r="Y36">
+        <v>0.97239397800000005</v>
+      </c>
+      <c r="Z36">
+        <v>0.97712010699999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B37">
-        <v>0.0001036176165555357</v>
+        <v>1.0361761655553571E-4</v>
       </c>
       <c r="C37">
-        <v>-0.009383358691494776</v>
+        <v>-9.383358691494776E-3</v>
       </c>
       <c r="D37">
-        <v>0.001280000028046505</v>
+        <v>1.2800000280465049E-3</v>
       </c>
       <c r="E37">
-        <v>-0.003031708901890999</v>
+        <v>-3.0317089018909991E-3</v>
       </c>
       <c r="F37">
-        <v>-0.001297445370905191</v>
+        <v>-1.297445370905191E-3</v>
       </c>
       <c r="G37">
-        <v>0.001058587736307321</v>
+        <v>1.058587736307321E-3</v>
       </c>
       <c r="H37">
-        <v>-0.001157354930771107</v>
+        <v>-1.1573549307711071E-3</v>
       </c>
       <c r="I37">
-        <v>0.00426491523200141</v>
+        <v>4.2649152320014096E-3</v>
       </c>
       <c r="J37">
-        <v>0.06891647291181931</v>
+        <v>6.8916472911819307E-2</v>
       </c>
       <c r="K37">
         <v>0.1878351062639167</v>
       </c>
       <c r="L37">
-        <v>0.2737735382555415</v>
+        <v>0.27377353825554152</v>
       </c>
       <c r="M37">
-        <v>0.3335357776046404</v>
+        <v>0.33353577760464043</v>
       </c>
       <c r="N37">
-        <v>0.3845295329822707</v>
+        <v>0.38452953298227072</v>
       </c>
       <c r="O37">
-        <v>0.4136221136840871</v>
+        <v>0.41362211368408708</v>
       </c>
       <c r="P37">
-        <v>0.4341713110884278</v>
+        <v>0.43417131108842782</v>
       </c>
       <c r="Q37">
         <v>0.4578616581436199</v>
@@ -2370,502 +3122,691 @@
         <v>0.4732862615633216</v>
       </c>
       <c r="S37">
-        <v>0.4940638591048365</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19">
+        <v>0.49406385910483652</v>
+      </c>
+      <c r="T37">
+        <v>0.62705650499999999</v>
+      </c>
+      <c r="U37">
+        <v>0.89409660099999999</v>
+      </c>
+      <c r="V37">
+        <v>0.94068844100000004</v>
+      </c>
+      <c r="W37">
+        <v>0.956492711</v>
+      </c>
+      <c r="X37">
+        <v>0.95690947500000001</v>
+      </c>
+      <c r="Y37">
+        <v>0.97119819299999999</v>
+      </c>
+      <c r="Z37">
+        <v>0.97680275699999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>0.0038348464296803</v>
+        <v>3.8348464296802998E-3</v>
       </c>
       <c r="C38">
-        <v>-0.009543756214445623</v>
+        <v>-9.5437562144456232E-3</v>
       </c>
       <c r="D38">
-        <v>-0.0008880726747749848</v>
+        <v>-8.8807267477498475E-4</v>
       </c>
       <c r="E38">
-        <v>-0.0007707823684659173</v>
+        <v>-7.707823684659173E-4</v>
       </c>
       <c r="F38">
-        <v>0.0002364640817108882</v>
+        <v>2.364640817108882E-4</v>
       </c>
       <c r="G38">
-        <v>0.006064148620632249</v>
+        <v>6.0641486206322488E-3</v>
       </c>
       <c r="H38">
-        <v>0.00637068753099883</v>
+        <v>6.3706875309988299E-3</v>
       </c>
       <c r="I38">
-        <v>0.0008472370779710708</v>
+        <v>8.4723707797107082E-4</v>
       </c>
       <c r="J38">
-        <v>0.06885662313779835</v>
+        <v>6.8856623137798348E-2</v>
       </c>
       <c r="K38">
-        <v>0.1847013758379019</v>
+        <v>0.18470137583790189</v>
       </c>
       <c r="L38">
-        <v>0.2733711216123743</v>
+        <v>0.27337112161237431</v>
       </c>
       <c r="M38">
-        <v>0.3286119836739018</v>
+        <v>0.32861198367390182</v>
       </c>
       <c r="N38">
-        <v>0.3794889214680278</v>
+        <v>0.37948892146802782</v>
       </c>
       <c r="O38">
-        <v>0.4115523451681835</v>
+        <v>0.41155234516818351</v>
       </c>
       <c r="P38">
-        <v>0.4286702256988909</v>
+        <v>0.42867022569889091</v>
       </c>
       <c r="Q38">
-        <v>0.4575239159657373</v>
+        <v>0.45752391596573733</v>
       </c>
       <c r="R38">
-        <v>0.4747428816852762</v>
+        <v>0.47474288168527617</v>
       </c>
       <c r="S38">
-        <v>0.4917423778398501</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19">
+        <v>0.49174237783985009</v>
+      </c>
+      <c r="T38">
+        <v>0.63034110099999996</v>
+      </c>
+      <c r="U38">
+        <v>0.89159064799999999</v>
+      </c>
+      <c r="V38">
+        <v>0.94266349599999999</v>
+      </c>
+      <c r="W38">
+        <v>0.95474078399999995</v>
+      </c>
+      <c r="X38">
+        <v>0.95789360999999995</v>
+      </c>
+      <c r="Y38">
+        <v>0.97133159199999997</v>
+      </c>
+      <c r="Z38">
+        <v>0.97596193600000003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>-0.002831949701007434</v>
+        <v>-2.8319497010074338E-3</v>
       </c>
       <c r="C39">
-        <v>-0.00475257777436487</v>
+        <v>-4.75257777436487E-3</v>
       </c>
       <c r="D39">
-        <v>0.003078824776064181</v>
+        <v>3.0788247760641812E-3</v>
       </c>
       <c r="E39">
-        <v>0.003648430256143102</v>
+        <v>3.6484302561431022E-3</v>
       </c>
       <c r="F39">
-        <v>0.005145237961778928</v>
+        <v>5.1452379617789278E-3</v>
       </c>
       <c r="G39">
-        <v>0.001198678108750257</v>
+        <v>1.198678108750257E-3</v>
       </c>
       <c r="H39">
-        <v>-0.0006747199087033581</v>
+        <v>-6.7471990870335806E-4</v>
       </c>
       <c r="I39">
-        <v>0.003672973958091093</v>
+        <v>3.672973958091093E-3</v>
       </c>
       <c r="J39">
-        <v>0.06448781295769966</v>
+        <v>6.4487812957699661E-2</v>
       </c>
       <c r="K39">
-        <v>0.1808615169118465</v>
+        <v>0.18086151691184649</v>
       </c>
       <c r="L39">
-        <v>0.2711339976942931</v>
+        <v>0.27113399769429308</v>
       </c>
       <c r="M39">
-        <v>0.3271784463333334</v>
+        <v>0.32717844633333337</v>
       </c>
       <c r="N39">
-        <v>0.3729190249431286</v>
+        <v>0.37291902494312862</v>
       </c>
       <c r="O39">
-        <v>0.4141247255064279</v>
+        <v>0.41412472550642793</v>
       </c>
       <c r="P39">
-        <v>0.4321496916723792</v>
+        <v>0.43214969167237921</v>
       </c>
       <c r="Q39">
-        <v>0.4557878706263138</v>
+        <v>0.45578787062631382</v>
       </c>
       <c r="R39">
-        <v>0.4757063461434277</v>
+        <v>0.47570634614342772</v>
       </c>
       <c r="S39">
-        <v>0.4884469462776426</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19">
+        <v>0.48844694627764262</v>
+      </c>
+      <c r="T39">
+        <v>0.62693595899999999</v>
+      </c>
+      <c r="U39">
+        <v>0.89108391899999995</v>
+      </c>
+      <c r="V39">
+        <v>0.94207093099999994</v>
+      </c>
+      <c r="W39">
+        <v>0.95410699399999999</v>
+      </c>
+      <c r="X39">
+        <v>0.95894878800000005</v>
+      </c>
+      <c r="Y39">
+        <v>0.97244251999999998</v>
+      </c>
+      <c r="Z39">
+        <v>0.97622196800000005</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>0.0002914812866008836</v>
+        <v>2.9148128660088361E-4</v>
       </c>
       <c r="C40">
-        <v>0.002966644690790431</v>
+        <v>2.966644690790431E-3</v>
       </c>
       <c r="D40">
-        <v>0.001260037065160315</v>
+        <v>1.260037065160315E-3</v>
       </c>
       <c r="E40">
-        <v>0.002684853226760486</v>
+        <v>2.6848532267604859E-3</v>
       </c>
       <c r="F40">
-        <v>0.002400349611486977</v>
+        <v>2.4003496114869769E-3</v>
       </c>
       <c r="G40">
-        <v>-0.003103700404865341</v>
+        <v>-3.1037004048653409E-3</v>
       </c>
       <c r="H40">
-        <v>-0.0007929079703708322</v>
+        <v>-7.9290797037083222E-4</v>
       </c>
       <c r="I40">
-        <v>0.004259413291051978</v>
+        <v>4.2594132910519777E-3</v>
       </c>
       <c r="J40">
-        <v>0.06152359562465085</v>
+        <v>6.1523595624650852E-2</v>
       </c>
       <c r="K40">
         <v>0.1849529020998224</v>
       </c>
       <c r="L40">
-        <v>0.2689116588720628</v>
+        <v>0.26891165887206281</v>
       </c>
       <c r="M40">
-        <v>0.3273883553319752</v>
+        <v>0.32738835533197519</v>
       </c>
       <c r="N40">
-        <v>0.3768170953311558</v>
+        <v>0.37681709533115582</v>
       </c>
       <c r="O40">
-        <v>0.4122541979943514</v>
+        <v>0.41225419799435142</v>
       </c>
       <c r="P40">
-        <v>0.4320122287233878</v>
+        <v>0.43201222872338779</v>
       </c>
       <c r="Q40">
-        <v>0.4576875211795864</v>
+        <v>0.45768752117958639</v>
       </c>
       <c r="R40">
-        <v>0.4721105287259401</v>
+        <v>0.47211052872594012</v>
       </c>
       <c r="S40">
-        <v>0.4855845224485444</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19">
+        <v>0.48558452244854439</v>
+      </c>
+      <c r="T40">
+        <v>0.62446957199999997</v>
+      </c>
+      <c r="U40">
+        <v>0.89489279099999997</v>
+      </c>
+      <c r="V40">
+        <v>0.94293977100000004</v>
+      </c>
+      <c r="W40">
+        <v>0.95341168799999998</v>
+      </c>
+      <c r="X40">
+        <v>0.95803486599999998</v>
+      </c>
+      <c r="Y40">
+        <v>0.97236452100000004</v>
+      </c>
+      <c r="Z40">
+        <v>0.97625990500000004</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B41">
-        <v>-0.006742813280167782</v>
+        <v>-6.7428132801677816E-3</v>
       </c>
       <c r="C41">
-        <v>-0.002905460961194464</v>
+        <v>-2.9054609611944642E-3</v>
       </c>
       <c r="D41">
-        <v>-0.0003066514734418102</v>
+        <v>-3.0665147344181019E-4</v>
       </c>
       <c r="E41">
-        <v>-0.001992581814134684</v>
+        <v>-1.9925818141346839E-3</v>
       </c>
       <c r="F41">
-        <v>0.001091864416827523</v>
+        <v>1.0918644168275229E-3</v>
       </c>
       <c r="G41">
-        <v>0.001369025261809215</v>
+        <v>1.369025261809215E-3</v>
       </c>
       <c r="H41">
-        <v>0.00493701638602331</v>
+        <v>4.9370163860233103E-3</v>
       </c>
       <c r="I41">
-        <v>0.003645018414307339</v>
+        <v>3.6450184143073392E-3</v>
       </c>
       <c r="J41">
-        <v>0.05650160162845876</v>
+        <v>5.6501601628458763E-2</v>
       </c>
       <c r="K41">
         <v>0.1817016354415191</v>
       </c>
       <c r="L41">
-        <v>0.2675658414076607</v>
+        <v>0.26756584140766071</v>
       </c>
       <c r="M41">
-        <v>0.3221421929943474</v>
+        <v>0.32214219299434738</v>
       </c>
       <c r="N41">
-        <v>0.3822272974185859</v>
+        <v>0.38222729741858591</v>
       </c>
       <c r="O41">
-        <v>0.4086422012038665</v>
+        <v>0.40864220120386652</v>
       </c>
       <c r="P41">
-        <v>0.4255554943347851</v>
+        <v>0.42555549433478512</v>
       </c>
       <c r="Q41">
-        <v>0.4542314371791958</v>
+        <v>0.45423143717919578</v>
       </c>
       <c r="R41">
-        <v>0.4713787079307731</v>
+        <v>0.47137870793077308</v>
       </c>
       <c r="S41">
-        <v>0.4899801966075233</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19">
+        <v>0.48998019660752329</v>
+      </c>
+      <c r="T41">
+        <v>0.61378271900000003</v>
+      </c>
+      <c r="U41">
+        <v>0.89437974399999998</v>
+      </c>
+      <c r="V41">
+        <v>0.94200930699999996</v>
+      </c>
+      <c r="W41">
+        <v>0.95428262900000005</v>
+      </c>
+      <c r="X41">
+        <v>0.95825886800000004</v>
+      </c>
+      <c r="Y41">
+        <v>0.97164981900000003</v>
+      </c>
+      <c r="Z41">
+        <v>0.97624462000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B42">
-        <v>0.003020966438135548</v>
+        <v>3.0209664381355482E-3</v>
       </c>
       <c r="C42">
-        <v>-0.002935399401999</v>
+        <v>-2.9353994019990001E-3</v>
       </c>
       <c r="D42">
-        <v>-0.003327060218243318</v>
+        <v>-3.3270602182433181E-3</v>
       </c>
       <c r="E42">
-        <v>-0.002500111425368323</v>
+        <v>-2.5001114253683232E-3</v>
       </c>
       <c r="F42">
-        <v>0.0009901399569415992</v>
+        <v>9.9013995694159922E-4</v>
       </c>
       <c r="G42">
-        <v>0.004103102290005891</v>
+        <v>4.1031022900058908E-3</v>
       </c>
       <c r="H42">
-        <v>0.00490892787451325</v>
+        <v>4.9089278745132496E-3</v>
       </c>
       <c r="I42">
-        <v>0.002037640484489171</v>
+        <v>2.0376404844891709E-3</v>
       </c>
       <c r="J42">
-        <v>0.05997520550281352</v>
+        <v>5.9975205502813517E-2</v>
       </c>
       <c r="K42">
-        <v>0.1793812717691328</v>
+        <v>0.17938127176913279</v>
       </c>
       <c r="L42">
-        <v>0.2644970326549591</v>
+        <v>0.26449703265495911</v>
       </c>
       <c r="M42">
-        <v>0.3267633741029971</v>
+        <v>0.32676337410299711</v>
       </c>
       <c r="N42">
-        <v>0.373512697579134</v>
+        <v>0.37351269757913402</v>
       </c>
       <c r="O42">
-        <v>0.4059450584057888</v>
+        <v>0.40594505840578882</v>
       </c>
       <c r="P42">
-        <v>0.4323070143323556</v>
+        <v>0.43230701433235558</v>
       </c>
       <c r="Q42">
-        <v>0.4520076523558453</v>
+        <v>0.45200765235584528</v>
       </c>
       <c r="R42">
-        <v>0.4703831334042395</v>
+        <v>0.47038313340423948</v>
       </c>
       <c r="S42">
-        <v>0.488519547837677</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19">
+        <v>0.48851954783767698</v>
+      </c>
+      <c r="T42">
+        <v>0.631114234</v>
+      </c>
+      <c r="U42">
+        <v>0.89154226599999997</v>
+      </c>
+      <c r="V42">
+        <v>0.94046513200000004</v>
+      </c>
+      <c r="W42">
+        <v>0.95533393200000005</v>
+      </c>
+      <c r="X42">
+        <v>0.95748757699999998</v>
+      </c>
+      <c r="Y42">
+        <v>0.97144666800000001</v>
+      </c>
+      <c r="Z42">
+        <v>0.97695308400000003</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B43">
-        <v>0.004813874125021425</v>
+        <v>4.8138741250214247E-3</v>
       </c>
       <c r="C43">
-        <v>0.001226167895958009</v>
+        <v>1.226167895958009E-3</v>
       </c>
       <c r="D43">
-        <v>-0.0002937290077018833</v>
+        <v>-2.937290077018833E-4</v>
       </c>
       <c r="E43">
-        <v>0.0009360577920107373</v>
+        <v>9.3605779201073728E-4</v>
       </c>
       <c r="F43">
-        <v>-0.00187063175664598</v>
+        <v>-1.87063175664598E-3</v>
       </c>
       <c r="G43">
-        <v>0.0003918191701933995</v>
+        <v>3.9181917019339948E-4</v>
       </c>
       <c r="H43">
-        <v>0.004271605649925434</v>
+        <v>4.2716056499254342E-3</v>
       </c>
       <c r="I43">
-        <v>0.003792160365199941</v>
+        <v>3.7921603651999412E-3</v>
       </c>
       <c r="J43">
-        <v>0.05994850133629316</v>
+        <v>5.9948501336293161E-2</v>
       </c>
       <c r="K43">
         <v>0.180083928209227</v>
       </c>
       <c r="L43">
-        <v>0.2649927525972071</v>
+        <v>0.26499275259720712</v>
       </c>
       <c r="M43">
-        <v>0.3229831842866936</v>
+        <v>0.32298318428669359</v>
       </c>
       <c r="N43">
-        <v>0.372930182061025</v>
+        <v>0.37293018206102502</v>
       </c>
       <c r="O43">
-        <v>0.4046799918518529</v>
+        <v>0.40467999185185288</v>
       </c>
       <c r="P43">
-        <v>0.4271058842789434</v>
+        <v>0.42710588427894342</v>
       </c>
       <c r="Q43">
         <v>0.4507975210770695</v>
       </c>
       <c r="R43">
-        <v>0.4686579433482126</v>
+        <v>0.46865794334821259</v>
       </c>
       <c r="S43">
-        <v>0.488468157078583</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19">
+        <v>0.48846815707858299</v>
+      </c>
+      <c r="T43">
+        <v>0.62011382299999995</v>
+      </c>
+      <c r="U43">
+        <v>0.89092023899999995</v>
+      </c>
+      <c r="V43">
+        <v>0.93906824600000005</v>
+      </c>
+      <c r="W43">
+        <v>0.95274325199999998</v>
+      </c>
+      <c r="X43">
+        <v>0.95758227600000001</v>
+      </c>
+      <c r="Y43">
+        <v>0.97119922800000003</v>
+      </c>
+      <c r="Z43">
+        <v>0.97574834799999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B44">
-        <v>-0.0004987615679335994</v>
+        <v>-4.9876156793359936E-4</v>
       </c>
       <c r="C44">
-        <v>-0.0001601081453588847</v>
+        <v>-1.6010814535888471E-4</v>
       </c>
       <c r="D44">
-        <v>0.0003733919476049738</v>
+        <v>3.7339194760497381E-4</v>
       </c>
       <c r="E44">
-        <v>0.00463156094510091</v>
+        <v>4.6315609451009097E-3</v>
       </c>
       <c r="F44">
-        <v>-0.001898629019273744</v>
+        <v>-1.898629019273744E-3</v>
       </c>
       <c r="G44">
-        <v>0.002232547057339667</v>
+        <v>2.232547057339667E-3</v>
       </c>
       <c r="H44">
-        <v>0.002486659194716398</v>
+        <v>2.486659194716398E-3</v>
       </c>
       <c r="I44">
-        <v>0.002459039935208547</v>
+        <v>2.459039935208547E-3</v>
       </c>
       <c r="J44">
-        <v>0.05877664156222082</v>
+        <v>5.8776641562220823E-2</v>
       </c>
       <c r="K44">
         <v>0.1789185276232565</v>
       </c>
       <c r="L44">
-        <v>0.2619863007363505</v>
+        <v>0.26198630073635049</v>
       </c>
       <c r="M44">
-        <v>0.3236228828775233</v>
+        <v>0.32362288287752328</v>
       </c>
       <c r="N44">
-        <v>0.3729268827881032</v>
+        <v>0.37292688278810321</v>
       </c>
       <c r="O44">
-        <v>0.3989466315403524</v>
+        <v>0.39894663154035243</v>
       </c>
       <c r="P44">
-        <v>0.4245531886702125</v>
+        <v>0.42455318867021252</v>
       </c>
       <c r="Q44">
-        <v>0.4455048504525452</v>
+        <v>0.44550485045254518</v>
       </c>
       <c r="R44">
-        <v>0.4633664089534204</v>
+        <v>0.46336640895342041</v>
       </c>
       <c r="S44">
         <v>0.4832781748762226</v>
       </c>
-    </row>
-    <row r="45" spans="2:19">
+      <c r="T44">
+        <v>0.61194055000000003</v>
+      </c>
+      <c r="U44">
+        <v>0.89457846799999996</v>
+      </c>
+      <c r="V44">
+        <v>0.93893484999999999</v>
+      </c>
+      <c r="W44">
+        <v>0.95213378999999998</v>
+      </c>
+      <c r="X44">
+        <v>0.95661998100000001</v>
+      </c>
+      <c r="Y44">
+        <v>0.97146308699999995</v>
+      </c>
+      <c r="Z44">
+        <v>0.97631552099999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B45">
-        <v>0.001580580355037975</v>
+        <v>1.580580355037975E-3</v>
       </c>
       <c r="C45">
-        <v>0.0009314395010515464</v>
+        <v>9.3143950105154644E-4</v>
       </c>
       <c r="D45">
-        <v>0.0006330956495502532</v>
+        <v>6.3309564955025318E-4</v>
       </c>
       <c r="E45">
-        <v>0.0002866051643370598</v>
+        <v>2.866051643370598E-4</v>
       </c>
       <c r="F45">
-        <v>0.002885746121544663</v>
+        <v>2.885746121544663E-3</v>
       </c>
       <c r="G45">
-        <v>-0.001296955743336111</v>
+        <v>-1.296955743336111E-3</v>
       </c>
       <c r="H45">
-        <v>0.0001003201349784398</v>
+        <v>1.003201349784398E-4</v>
       </c>
       <c r="I45">
-        <v>0.005849823821175926</v>
+        <v>5.8498238211759264E-3</v>
       </c>
       <c r="J45">
-        <v>0.05489673157047247</v>
+        <v>5.4896731570472472E-2</v>
       </c>
       <c r="K45">
         <v>0.1744633990462239</v>
       </c>
       <c r="L45">
-        <v>0.2576970063645058</v>
+        <v>0.25769700636450582</v>
       </c>
       <c r="M45">
-        <v>0.3169466838307657</v>
+        <v>0.31694668383076569</v>
       </c>
       <c r="N45">
-        <v>0.3726003608678294</v>
+        <v>0.37260036086782938</v>
       </c>
       <c r="O45">
-        <v>0.4058753655499707</v>
+        <v>0.40587536554997072</v>
       </c>
       <c r="P45">
-        <v>0.4206810420627998</v>
+        <v>0.42068104206279983</v>
       </c>
       <c r="Q45">
-        <v>0.4465052034468882</v>
+        <v>0.44650520344688821</v>
       </c>
       <c r="R45">
-        <v>0.4630010095741975</v>
+        <v>0.46300100957419749</v>
       </c>
       <c r="S45">
-        <v>0.4867434662435323</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19">
+        <v>0.48674346624353232</v>
+      </c>
+      <c r="T45">
+        <v>0.61025581399999995</v>
+      </c>
+      <c r="U45">
+        <v>0.88970472599999995</v>
+      </c>
+      <c r="V45">
+        <v>0.93736676500000005</v>
+      </c>
+      <c r="W45">
+        <v>0.953120509</v>
+      </c>
+      <c r="X45">
+        <v>0.95554550900000002</v>
+      </c>
+      <c r="Y45">
+        <v>0.97137240499999999</v>
+      </c>
+      <c r="Z45">
+        <v>0.97613644899999996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B46">
-        <v>0.001781814645172875</v>
+        <v>1.781814645172875E-3</v>
       </c>
       <c r="C46">
-        <v>0.002998514938496263</v>
+        <v>2.9985149384962632E-3</v>
       </c>
       <c r="D46">
-        <v>0.004944920965815307</v>
+        <v>4.9449209658153073E-3</v>
       </c>
       <c r="E46">
-        <v>0.00027197425752093</v>
+        <v>2.7197425752093E-4</v>
       </c>
       <c r="F46">
-        <v>0.002011554231524191</v>
+        <v>2.0115542315241909E-3</v>
       </c>
       <c r="G46">
-        <v>-0.001081963340395159</v>
+        <v>-1.0819633403951589E-3</v>
       </c>
       <c r="H46">
-        <v>0.000894070383610288</v>
+        <v>8.9407038361028802E-4</v>
       </c>
       <c r="I46">
-        <v>-0.003841945592348836</v>
+        <v>-3.841945592348836E-3</v>
       </c>
       <c r="J46">
-        <v>0.05319581117902204</v>
+        <v>5.3195811179022043E-2</v>
       </c>
       <c r="K46">
-        <v>0.177807218990548</v>
+        <v>0.17780721899054799</v>
       </c>
       <c r="L46">
-        <v>0.2644568397068344</v>
+        <v>0.26445683970683442</v>
       </c>
       <c r="M46">
-        <v>0.319661521489599</v>
+        <v>0.31966152148959898</v>
       </c>
       <c r="N46">
-        <v>0.3711430855105018</v>
+        <v>0.37114308551050179</v>
       </c>
       <c r="O46">
-        <v>0.4039009027655939</v>
+        <v>0.40390090276559393</v>
       </c>
       <c r="P46">
-        <v>0.4208138131468492</v>
+        <v>0.42081381314684918</v>
       </c>
       <c r="Q46">
         <v>0.4430074995781132</v>
@@ -2874,708 +3815,981 @@
         <v>0.4611203389020429</v>
       </c>
       <c r="S46">
-        <v>0.4805173328586281</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19">
+        <v>0.48051733285862808</v>
+      </c>
+      <c r="T46">
+        <v>0.61257810599999996</v>
+      </c>
+      <c r="U46">
+        <v>0.88954836699999995</v>
+      </c>
+      <c r="V46">
+        <v>0.94326930200000003</v>
+      </c>
+      <c r="W46">
+        <v>0.95409199899999997</v>
+      </c>
+      <c r="X46">
+        <v>0.95716052500000004</v>
+      </c>
+      <c r="Y46">
+        <v>0.97119369700000002</v>
+      </c>
+      <c r="Z46">
+        <v>0.97632490299999997</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B47">
-        <v>-0.004738582800176419</v>
+        <v>-4.7385828001764189E-3</v>
       </c>
       <c r="C47">
-        <v>0.00321277046496916</v>
+        <v>3.2127704649691602E-3</v>
       </c>
       <c r="D47">
-        <v>-0.00564024593454103</v>
+        <v>-5.64024593454103E-3</v>
       </c>
       <c r="E47">
-        <v>-0.005854682980663499</v>
+        <v>-5.8546829806634991E-3</v>
       </c>
       <c r="F47">
-        <v>-0.003786885559047663</v>
+        <v>-3.786885559047663E-3</v>
       </c>
       <c r="G47">
-        <v>0.0034569613678375</v>
+        <v>3.4569613678375002E-3</v>
       </c>
       <c r="H47">
-        <v>0.001726450536048017</v>
+        <v>1.726450536048017E-3</v>
       </c>
       <c r="I47">
-        <v>0.003271542808008939</v>
+        <v>3.271542808008939E-3</v>
       </c>
       <c r="J47">
-        <v>0.05182728567156619</v>
+        <v>5.1827285671566192E-2</v>
       </c>
       <c r="K47">
-        <v>0.1731577369703443</v>
+        <v>0.17315773697034431</v>
       </c>
       <c r="L47">
-        <v>0.2609292029521779</v>
+        <v>0.26092920295217792</v>
       </c>
       <c r="M47">
-        <v>0.3128033054620651</v>
+        <v>0.31280330546206508</v>
       </c>
       <c r="N47">
-        <v>0.3733410720042167</v>
+        <v>0.37334107200421668</v>
       </c>
       <c r="O47">
-        <v>0.4000395682208884</v>
+        <v>0.40003956822088838</v>
       </c>
       <c r="P47">
-        <v>0.4208722551337594</v>
+        <v>0.42087225513375942</v>
       </c>
       <c r="Q47">
-        <v>0.4459810351176406</v>
+        <v>0.44598103511764059</v>
       </c>
       <c r="R47">
-        <v>0.4618895357260477</v>
+        <v>0.46188953572604768</v>
       </c>
       <c r="S47">
-        <v>0.4804700699160164</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19">
+        <v>0.48047006991601637</v>
+      </c>
+      <c r="T47">
+        <v>0.61961032699999996</v>
+      </c>
+      <c r="U47">
+        <v>0.88892585599999996</v>
+      </c>
+      <c r="V47">
+        <v>0.93968576699999995</v>
+      </c>
+      <c r="W47">
+        <v>0.95154812499999997</v>
+      </c>
+      <c r="X47">
+        <v>0.957363776</v>
+      </c>
+      <c r="Y47">
+        <v>0.970711922</v>
+      </c>
+      <c r="Z47">
+        <v>0.97664732499999996</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B48">
-        <v>-0.003928660070196232</v>
+        <v>-3.9286600701962321E-3</v>
       </c>
       <c r="C48">
-        <v>-0.006339232566073014</v>
+        <v>-6.3392325660730142E-3</v>
       </c>
       <c r="D48">
-        <v>-0.005218816455823306</v>
+        <v>-5.2188164558233056E-3</v>
       </c>
       <c r="E48">
-        <v>-0.005212250881881393</v>
+        <v>-5.2122508818813933E-3</v>
       </c>
       <c r="F48">
-        <v>-0.001840937728181245</v>
+        <v>-1.8409377281812451E-3</v>
       </c>
       <c r="G48">
-        <v>0.002096358522411282</v>
+        <v>2.0963585224112822E-3</v>
       </c>
       <c r="H48">
-        <v>0.004222418977790946</v>
+        <v>4.2224189777909458E-3</v>
       </c>
       <c r="I48">
-        <v>0.00519085538338683</v>
+        <v>5.1908553833868304E-3</v>
       </c>
       <c r="J48">
-        <v>0.05084497087057646</v>
+        <v>5.0844970870576461E-2</v>
       </c>
       <c r="K48">
         <v>0.1702709491796239</v>
       </c>
       <c r="L48">
-        <v>0.2650579906860113</v>
+        <v>0.26505799068601132</v>
       </c>
       <c r="M48">
-        <v>0.3246046323602303</v>
+        <v>0.32460463236023029</v>
       </c>
       <c r="N48">
-        <v>0.3704464147892454</v>
+        <v>0.37044641478924539</v>
       </c>
       <c r="O48">
-        <v>0.4044430950451063</v>
+        <v>0.40444309504510628</v>
       </c>
       <c r="P48">
-        <v>0.4200655210306593</v>
+        <v>0.42006552103065931</v>
       </c>
       <c r="Q48">
-        <v>0.4476057968546583</v>
+        <v>0.44760579685465829</v>
       </c>
       <c r="R48">
-        <v>0.4602922381907215</v>
+        <v>0.46029223819072151</v>
       </c>
       <c r="S48">
-        <v>0.4810431048321954</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19">
+        <v>0.48104310483219542</v>
+      </c>
+      <c r="T48">
+        <v>0.62314011800000002</v>
+      </c>
+      <c r="U48">
+        <v>0.89472286000000001</v>
+      </c>
+      <c r="V48">
+        <v>0.93870461299999997</v>
+      </c>
+      <c r="W48">
+        <v>0.95178823499999998</v>
+      </c>
+      <c r="X48">
+        <v>0.95721493000000002</v>
+      </c>
+      <c r="Y48">
+        <v>0.97094281999999998</v>
+      </c>
+      <c r="Z48">
+        <v>0.97543101499999996</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B49">
-        <v>-0.004630085306322244</v>
+        <v>-4.6300853063222444E-3</v>
       </c>
       <c r="C49">
-        <v>-0.004999529112243017</v>
+        <v>-4.9995291122430169E-3</v>
       </c>
       <c r="D49">
-        <v>-0.002885314186467245</v>
+        <v>-2.8853141864672448E-3</v>
       </c>
       <c r="E49">
-        <v>-0.002966604908931709</v>
+        <v>-2.9666049089317088E-3</v>
       </c>
       <c r="F49">
-        <v>0.0003413192706960519</v>
+        <v>3.4131927069605192E-4</v>
       </c>
       <c r="G49">
-        <v>-0.005274569639587615</v>
+        <v>-5.2745696395876153E-3</v>
       </c>
       <c r="H49">
-        <v>-0.0006692197076173251</v>
+        <v>-6.6921970761732506E-4</v>
       </c>
       <c r="I49">
-        <v>0.005763157560830245</v>
+        <v>5.7631575608302447E-3</v>
       </c>
       <c r="J49">
-        <v>0.05120470468990805</v>
+        <v>5.1204704689908051E-2</v>
       </c>
       <c r="K49">
         <v>0.1726779367241561</v>
       </c>
       <c r="L49">
-        <v>0.2575126949247101</v>
+        <v>0.25751269492471007</v>
       </c>
       <c r="M49">
-        <v>0.3185874417096803</v>
+        <v>0.31858744170968029</v>
       </c>
       <c r="N49">
-        <v>0.3684177389954958</v>
+        <v>0.36841773899549579</v>
       </c>
       <c r="O49">
-        <v>0.397387894959088</v>
+        <v>0.39738789495908799</v>
       </c>
       <c r="P49">
-        <v>0.4192735896698954</v>
+        <v>0.41927358966989542</v>
       </c>
       <c r="Q49">
-        <v>0.4445930529172398</v>
+        <v>0.44459305291723977</v>
       </c>
       <c r="R49">
-        <v>0.4570623657342174</v>
+        <v>0.45706236573421738</v>
       </c>
       <c r="S49">
-        <v>0.4772995985811089</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19">
+        <v>0.47729959858110887</v>
+      </c>
+      <c r="T49">
+        <v>0.61515046900000003</v>
+      </c>
+      <c r="U49">
+        <v>0.88984133899999995</v>
+      </c>
+      <c r="V49">
+        <v>0.938555158</v>
+      </c>
+      <c r="W49">
+        <v>0.95136326500000001</v>
+      </c>
+      <c r="X49">
+        <v>0.95528455400000001</v>
+      </c>
+      <c r="Y49">
+        <v>0.97032835799999995</v>
+      </c>
+      <c r="Z49">
+        <v>0.97651054000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B50">
-        <v>-0.0001207041374955168</v>
+        <v>-1.207041374955168E-4</v>
       </c>
       <c r="C50">
-        <v>0.002396308892772731</v>
+        <v>2.3963088927727309E-3</v>
       </c>
       <c r="D50">
-        <v>0.002874789585114008</v>
+        <v>2.874789585114008E-3</v>
       </c>
       <c r="E50">
-        <v>-0.003015274018096092</v>
+        <v>-3.015274018096092E-3</v>
       </c>
       <c r="F50">
-        <v>-0.00369288962629157</v>
+        <v>-3.6928896262915698E-3</v>
       </c>
       <c r="G50">
-        <v>-0.001261801663997076</v>
+        <v>-1.261801663997076E-3</v>
       </c>
       <c r="H50">
-        <v>-0.002714404512754577</v>
+        <v>-2.7144045127545772E-3</v>
       </c>
       <c r="I50">
-        <v>0.002787301515018393</v>
+        <v>2.7873015150183928E-3</v>
       </c>
       <c r="J50">
-        <v>0.05255174045890877</v>
+        <v>5.2551740458908772E-2</v>
       </c>
       <c r="K50">
         <v>0.1698737368965734</v>
       </c>
       <c r="L50">
-        <v>0.2618648991768209</v>
+        <v>0.26186489917682088</v>
       </c>
       <c r="M50">
-        <v>0.3147104079802155</v>
+        <v>0.31471040798021549</v>
       </c>
       <c r="N50">
         <v>0.3680398992809969</v>
       </c>
       <c r="O50">
-        <v>0.3993129964499268</v>
+        <v>0.39931299644992679</v>
       </c>
       <c r="P50">
-        <v>0.4187688584116694</v>
+        <v>0.41876885841166939</v>
       </c>
       <c r="Q50">
-        <v>0.443207969679776</v>
+        <v>0.44320796967977599</v>
       </c>
       <c r="R50">
-        <v>0.4577458443534834</v>
+        <v>0.45774584435348342</v>
       </c>
       <c r="S50">
-        <v>0.4755541701358831</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19">
+        <v>0.47555417013588308</v>
+      </c>
+      <c r="T50">
+        <v>0.617001032</v>
+      </c>
+      <c r="U50">
+        <v>0.88930836199999996</v>
+      </c>
+      <c r="V50">
+        <v>0.94036778300000001</v>
+      </c>
+      <c r="W50">
+        <v>0.95376574300000005</v>
+      </c>
+      <c r="X50">
+        <v>0.95458442700000001</v>
+      </c>
+      <c r="Y50">
+        <v>0.97090465299999995</v>
+      </c>
+      <c r="Z50">
+        <v>0.976129311</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B51">
-        <v>-0.0009573313408220683</v>
+        <v>-9.5733134082206833E-4</v>
       </c>
       <c r="C51">
-        <v>0.006705812956622571</v>
+        <v>6.7058129566225713E-3</v>
       </c>
       <c r="D51">
-        <v>-0.002385952346156289</v>
+        <v>-2.3859523461562892E-3</v>
       </c>
       <c r="E51">
-        <v>-0.00387549842560479</v>
+        <v>-3.8754984256047899E-3</v>
       </c>
       <c r="F51">
-        <v>-0.002015709835139819</v>
+        <v>-2.0157098351398189E-3</v>
       </c>
       <c r="G51">
-        <v>-0.001511226002750821</v>
+        <v>-1.5112260027508209E-3</v>
       </c>
       <c r="H51">
-        <v>-0.0001636114637344127</v>
+        <v>-1.6361146373441269E-4</v>
       </c>
       <c r="I51">
-        <v>0.003086537737662318</v>
+        <v>3.0865377376623178E-3</v>
       </c>
       <c r="J51">
-        <v>0.04674631935723723</v>
+        <v>4.6746319357237227E-2</v>
       </c>
       <c r="K51">
         <v>0.1709800577795991</v>
       </c>
       <c r="L51">
-        <v>0.2519487822517955</v>
+        <v>0.25194878225179551</v>
       </c>
       <c r="M51">
-        <v>0.312041508727096</v>
+        <v>0.31204150872709602</v>
       </c>
       <c r="N51">
         <v>0.367256490727778</v>
       </c>
       <c r="O51">
-        <v>0.3950808941956538</v>
+        <v>0.39508089419565379</v>
       </c>
       <c r="P51">
-        <v>0.4183867490437809</v>
+        <v>0.41838674904378093</v>
       </c>
       <c r="Q51">
-        <v>0.4452967777614534</v>
+        <v>0.44529677776145338</v>
       </c>
       <c r="R51">
-        <v>0.459773567425884</v>
+        <v>0.45977356742588399</v>
       </c>
       <c r="S51">
-        <v>0.4763624939896068</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19">
+        <v>0.47636249398960678</v>
+      </c>
+      <c r="T51">
+        <v>0.61289068300000005</v>
+      </c>
+      <c r="U51">
+        <v>0.89211855799999995</v>
+      </c>
+      <c r="V51">
+        <v>0.93642551600000001</v>
+      </c>
+      <c r="W51">
+        <v>0.95158893700000002</v>
+      </c>
+      <c r="X51">
+        <v>0.95514690400000002</v>
+      </c>
+      <c r="Y51">
+        <v>0.97161184499999997</v>
+      </c>
+      <c r="Z51">
+        <v>0.97493404100000003</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B52">
-        <v>-0.001237042182006364</v>
+        <v>-1.237042182006364E-3</v>
       </c>
       <c r="C52">
-        <v>-0.004617424874537351</v>
+        <v>-4.6174248745373507E-3</v>
       </c>
       <c r="D52">
-        <v>-0.000374142963362663</v>
+        <v>-3.7414296336266302E-4</v>
       </c>
       <c r="E52">
-        <v>-0.001039508264978342</v>
+        <v>-1.039508264978342E-3</v>
       </c>
       <c r="F52">
-        <v>0.008524385850041522</v>
+        <v>8.5243858500415222E-3</v>
       </c>
       <c r="G52">
-        <v>0.00155418561057288</v>
+        <v>1.55418561057288E-3</v>
       </c>
       <c r="H52">
-        <v>-0.001676897479801232</v>
+        <v>-1.6768974798012321E-3</v>
       </c>
       <c r="I52">
-        <v>0.00497078660156469</v>
+        <v>4.97078660156469E-3</v>
       </c>
       <c r="J52">
-        <v>0.04550183300170407</v>
+        <v>4.5501833001704073E-2</v>
       </c>
       <c r="K52">
-        <v>0.1762696346193934</v>
+        <v>0.17626963461939341</v>
       </c>
       <c r="L52">
-        <v>0.2554440679533829</v>
+        <v>0.25544406795338293</v>
       </c>
       <c r="M52">
         <v>0.3132590946666734</v>
       </c>
       <c r="N52">
-        <v>0.3669011437072169</v>
+        <v>0.36690114370721688</v>
       </c>
       <c r="O52">
-        <v>0.3966531101225907</v>
+        <v>0.39665311012259069</v>
       </c>
       <c r="P52">
-        <v>0.4179154231461814</v>
+        <v>0.41791542314618141</v>
       </c>
       <c r="Q52">
-        <v>0.4421299856412764</v>
+        <v>0.44212998564127642</v>
       </c>
       <c r="R52">
-        <v>0.4554497695051195</v>
+        <v>0.45544976950511951</v>
       </c>
       <c r="S52">
-        <v>0.476339448818582</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19">
+        <v>0.47633944881858198</v>
+      </c>
+      <c r="T52">
+        <v>0.61738890000000002</v>
+      </c>
+      <c r="U52">
+        <v>0.88432044899999995</v>
+      </c>
+      <c r="V52">
+        <v>0.94071731400000003</v>
+      </c>
+      <c r="W52">
+        <v>0.95195548100000005</v>
+      </c>
+      <c r="X52">
+        <v>0.95510032899999997</v>
+      </c>
+      <c r="Y52">
+        <v>0.97055021600000002</v>
+      </c>
+      <c r="Z52">
+        <v>0.97602862400000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B53">
-        <v>0.002129362867506872</v>
+        <v>2.129362867506872E-3</v>
       </c>
       <c r="C53">
-        <v>-0.00193462639645877</v>
+        <v>-1.9346263964587699E-3</v>
       </c>
       <c r="D53">
-        <v>-0.001941554538178646</v>
+        <v>-1.941554538178646E-3</v>
       </c>
       <c r="E53">
-        <v>-0.0008462947175981762</v>
+        <v>-8.4629471759817623E-4</v>
       </c>
       <c r="F53">
-        <v>-0.004955947819637424</v>
+        <v>-4.9559478196374244E-3</v>
       </c>
       <c r="G53">
-        <v>-0.001380923475373142</v>
+        <v>-1.3809234753731419E-3</v>
       </c>
       <c r="H53">
-        <v>0.001226234185301622</v>
+        <v>1.226234185301622E-3</v>
       </c>
       <c r="I53">
-        <v>0.001938589540865155</v>
+        <v>1.9385895408651551E-3</v>
       </c>
       <c r="J53">
-        <v>0.04274570990704332</v>
+        <v>4.2745709907043322E-2</v>
       </c>
       <c r="K53">
-        <v>0.1673642181474709</v>
+        <v>0.16736421814747091</v>
       </c>
       <c r="L53">
-        <v>0.2590895833954585</v>
+        <v>0.25908958339545851</v>
       </c>
       <c r="M53">
-        <v>0.3076492186967471</v>
+        <v>0.30764921869674711</v>
       </c>
       <c r="N53">
-        <v>0.3658709301619186</v>
+        <v>0.36587093016191857</v>
       </c>
       <c r="O53">
-        <v>0.3971465356882526</v>
+        <v>0.39714653568825259</v>
       </c>
       <c r="P53">
-        <v>0.4231110616734768</v>
+        <v>0.42311106167347678</v>
       </c>
       <c r="Q53">
-        <v>0.4360717570854734</v>
+        <v>0.43607175708547341</v>
       </c>
       <c r="R53">
-        <v>0.4569450834616597</v>
+        <v>0.45694508346165968</v>
       </c>
       <c r="S53">
-        <v>0.4799524472262657</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19">
+        <v>0.47995244722626568</v>
+      </c>
+      <c r="T53">
+        <v>0.62556336899999998</v>
+      </c>
+      <c r="U53">
+        <v>0.89068677200000002</v>
+      </c>
+      <c r="V53">
+        <v>0.93977911700000005</v>
+      </c>
+      <c r="W53">
+        <v>0.95185056300000004</v>
+      </c>
+      <c r="X53">
+        <v>0.95531545500000004</v>
+      </c>
+      <c r="Y53">
+        <v>0.97308814399999999</v>
+      </c>
+      <c r="Z53">
+        <v>0.97635402500000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B54">
-        <v>-0.001435493457449742</v>
+        <v>-1.4354934574497421E-3</v>
       </c>
       <c r="C54">
-        <v>-0.004225600348166366</v>
+        <v>-4.2256003481663659E-3</v>
       </c>
       <c r="D54">
-        <v>0.0008655152837146775</v>
+        <v>8.6551528371467748E-4</v>
       </c>
       <c r="E54">
-        <v>0.0006323922277757571</v>
+        <v>6.3239222777575709E-4</v>
       </c>
       <c r="F54">
-        <v>0.004319796345350801</v>
+        <v>4.3197963453508008E-3</v>
       </c>
       <c r="G54">
-        <v>0.004715223200435235</v>
+        <v>4.7152232004352354E-3</v>
       </c>
       <c r="H54">
-        <v>-0.003825685693633351</v>
+        <v>-3.825685693633351E-3</v>
       </c>
       <c r="I54">
-        <v>0.003822339404161267</v>
+        <v>3.8223394041612671E-3</v>
       </c>
       <c r="J54">
-        <v>0.05084971112096291</v>
+        <v>5.0849711120962912E-2</v>
       </c>
       <c r="K54">
-        <v>0.1667102301575814</v>
+        <v>0.16671023015758141</v>
       </c>
       <c r="L54">
-        <v>0.2595088080803745</v>
+        <v>0.25950880808037452</v>
       </c>
       <c r="M54">
-        <v>0.3162026828181785</v>
+        <v>0.31620268281817848</v>
       </c>
       <c r="N54">
-        <v>0.3636483877208355</v>
+        <v>0.36364838772083552</v>
       </c>
       <c r="O54">
-        <v>0.3996762172187625</v>
+        <v>0.39967621721876251</v>
       </c>
       <c r="P54">
-        <v>0.4176616480256212</v>
+        <v>0.41766164802562122</v>
       </c>
       <c r="Q54">
-        <v>0.4409347530966304</v>
+        <v>0.44093475309663038</v>
       </c>
       <c r="R54">
-        <v>0.4545850566706163</v>
+        <v>0.45458505667061633</v>
       </c>
       <c r="S54">
-        <v>0.4725508040079899</v>
-      </c>
-    </row>
-    <row r="55" spans="2:19">
+        <v>0.47255080400798988</v>
+      </c>
+      <c r="T54">
+        <v>0.61604010499999995</v>
+      </c>
+      <c r="U54">
+        <v>0.89214634800000003</v>
+      </c>
+      <c r="V54">
+        <v>0.93779695399999996</v>
+      </c>
+      <c r="W54">
+        <v>0.95031771399999998</v>
+      </c>
+      <c r="X54">
+        <v>0.95469869100000004</v>
+      </c>
+      <c r="Y54">
+        <v>0.97044371500000004</v>
+      </c>
+      <c r="Z54">
+        <v>0.97582647300000003</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B55">
-        <v>0.002915320041955004</v>
+        <v>2.915320041955004E-3</v>
       </c>
       <c r="C55">
-        <v>0.002116355424827065</v>
+        <v>2.1163554248270649E-3</v>
       </c>
       <c r="D55">
-        <v>0.003346564586571395</v>
+        <v>3.346564586571395E-3</v>
       </c>
       <c r="E55">
-        <v>0.001095237130349127</v>
+        <v>1.0952371303491271E-3</v>
       </c>
       <c r="F55">
-        <v>-0.00165509453372632</v>
+        <v>-1.6550945337263201E-3</v>
       </c>
       <c r="G55">
-        <v>-0.0005466253078129941</v>
+        <v>-5.4662530781299408E-4</v>
       </c>
       <c r="H55">
-        <v>-3.811780833510084e-05</v>
+        <v>-3.8117808335100842E-5</v>
       </c>
       <c r="I55">
-        <v>0.000634253293422286</v>
+        <v>6.3425329342228602E-4</v>
       </c>
       <c r="J55">
-        <v>0.04100263853299976</v>
+        <v>4.1002638532999763E-2</v>
       </c>
       <c r="K55">
         <v>0.1733191611023035</v>
       </c>
       <c r="L55">
-        <v>0.2568204721634709</v>
+        <v>0.25682047216347093</v>
       </c>
       <c r="M55">
-        <v>0.3113322669629464</v>
+        <v>0.31133226696294641</v>
       </c>
       <c r="N55">
-        <v>0.3691672433201629</v>
+        <v>0.36916724332016287</v>
       </c>
       <c r="O55">
         <v>0.3921709341935678</v>
       </c>
       <c r="P55">
-        <v>0.4194994070394115</v>
+        <v>0.41949940703941152</v>
       </c>
       <c r="Q55">
-        <v>0.4427433818378305</v>
+        <v>0.44274338183783052</v>
       </c>
       <c r="R55">
-        <v>0.4546629435567875</v>
+        <v>0.45466294355678749</v>
       </c>
       <c r="S55">
-        <v>0.4753183600693919</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19">
+        <v>0.47531836006939188</v>
+      </c>
+      <c r="T55">
+        <v>0.60963485299999998</v>
+      </c>
+      <c r="U55">
+        <v>0.88328348700000003</v>
+      </c>
+      <c r="V55">
+        <v>0.93784002799999999</v>
+      </c>
+      <c r="W55">
+        <v>0.95133288599999999</v>
+      </c>
+      <c r="X55">
+        <v>0.95408790600000004</v>
+      </c>
+      <c r="Y55">
+        <v>0.97099711499999997</v>
+      </c>
+      <c r="Z55">
+        <v>0.97581646099999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B56">
-        <v>0.0002168625492479891</v>
+        <v>2.1686254924798909E-4</v>
       </c>
       <c r="C56">
-        <v>0.003779596598692669</v>
+        <v>3.7795965986926689E-3</v>
       </c>
       <c r="D56">
-        <v>0.002797933869143631</v>
+        <v>2.797933869143631E-3</v>
       </c>
       <c r="E56">
-        <v>-0.002429377396498017</v>
+        <v>-2.4293773964980171E-3</v>
       </c>
       <c r="F56">
-        <v>-0.0009999363578141543</v>
+        <v>-9.9993635781415427E-4</v>
       </c>
       <c r="G56">
-        <v>6.839106080783192e-05</v>
+        <v>6.8391060807831917E-5</v>
       </c>
       <c r="H56">
-        <v>-0.002964822031062956</v>
+        <v>-2.9648220310629558E-3</v>
       </c>
       <c r="I56">
-        <v>0.0005714603488714267</v>
+        <v>5.7146034887142674E-4</v>
       </c>
       <c r="J56">
-        <v>0.04673500793365531</v>
+        <v>4.6735007933655308E-2</v>
       </c>
       <c r="K56">
-        <v>0.1680140652586102</v>
+        <v>0.16801406525861021</v>
       </c>
       <c r="L56">
-        <v>0.2542800209331927</v>
+        <v>0.25428002093319269</v>
       </c>
       <c r="M56">
-        <v>0.3176791936385138</v>
+        <v>0.31767919363851382</v>
       </c>
       <c r="N56">
-        <v>0.3638350880400013</v>
+        <v>0.36383508804000131</v>
       </c>
       <c r="O56">
-        <v>0.3933942701012244</v>
+        <v>0.39339427010122441</v>
       </c>
       <c r="P56">
-        <v>0.4143600558622091</v>
+        <v>0.41436005586220909</v>
       </c>
       <c r="Q56">
-        <v>0.435935293278673</v>
+        <v>0.43593529327867298</v>
       </c>
       <c r="R56">
-        <v>0.4519723354659637</v>
+        <v>0.45197233546596371</v>
       </c>
       <c r="S56">
-        <v>0.4727758558115043</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19">
+        <v>0.47277585581150428</v>
+      </c>
+      <c r="T56">
+        <v>0.61462077900000001</v>
+      </c>
+      <c r="U56">
+        <v>0.88914053500000001</v>
+      </c>
+      <c r="V56">
+        <v>0.938332571</v>
+      </c>
+      <c r="W56">
+        <v>0.95113602399999997</v>
+      </c>
+      <c r="X56">
+        <v>0.953352431</v>
+      </c>
+      <c r="Y56">
+        <v>0.97146542300000005</v>
+      </c>
+      <c r="Z56">
+        <v>0.97623925700000003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B57">
-        <v>-0.002938421784869597</v>
+        <v>-2.9384217848695969E-3</v>
       </c>
       <c r="C57">
-        <v>-0.003346589001463817</v>
+        <v>-3.346589001463817E-3</v>
       </c>
       <c r="D57">
-        <v>0.003394536983143892</v>
+        <v>3.3945369831438919E-3</v>
       </c>
       <c r="E57">
-        <v>-0.0004036673192772796</v>
+        <v>-4.0366731927727961E-4</v>
       </c>
       <c r="F57">
-        <v>-0.001654316487405493</v>
+        <v>-1.654316487405493E-3</v>
       </c>
       <c r="G57">
-        <v>-0.006747107747479627</v>
+        <v>-6.7471077474796273E-3</v>
       </c>
       <c r="H57">
-        <v>-0.0003548909695300962</v>
+        <v>-3.5489096953009619E-4</v>
       </c>
       <c r="I57">
-        <v>0.0006978221318834881</v>
+        <v>6.9782213188348814E-4</v>
       </c>
       <c r="J57">
-        <v>0.04364028468334852</v>
+        <v>4.3640284683348518E-2</v>
       </c>
       <c r="K57">
         <v>0.1627305172715835</v>
       </c>
       <c r="L57">
-        <v>0.2508933251158232</v>
+        <v>0.25089332511582318</v>
       </c>
       <c r="M57">
-        <v>0.302501318327677</v>
+        <v>0.30250131832767702</v>
       </c>
       <c r="N57">
-        <v>0.3649066202940339</v>
+        <v>0.36490662029403392</v>
       </c>
       <c r="O57">
-        <v>0.3970447501345526</v>
+        <v>0.39704475013455259</v>
       </c>
       <c r="P57">
-        <v>0.4184385038672707</v>
+        <v>0.41843850386727072</v>
       </c>
       <c r="Q57">
-        <v>0.4386463590639363</v>
+        <v>0.43864635906393629</v>
       </c>
       <c r="R57">
-        <v>0.4515661617259584</v>
+        <v>0.45156616172595843</v>
       </c>
       <c r="S57">
-        <v>0.4766651757495042</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19">
+        <v>0.47666517574950418</v>
+      </c>
+      <c r="T57">
+        <v>0.62133269199999996</v>
+      </c>
+      <c r="U57">
+        <v>0.88512463799999996</v>
+      </c>
+      <c r="V57">
+        <v>0.93665242199999998</v>
+      </c>
+      <c r="W57">
+        <v>0.94962432399999996</v>
+      </c>
+      <c r="X57">
+        <v>0.95450589399999997</v>
+      </c>
+      <c r="Y57">
+        <v>0.97013625100000001</v>
+      </c>
+      <c r="Z57">
+        <v>0.975025582</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B58">
-        <v>0.00416728048939983</v>
+        <v>4.1672804893998303E-3</v>
       </c>
       <c r="C58">
-        <v>-0.0003032600493372835</v>
+        <v>-3.0326004933728352E-4</v>
       </c>
       <c r="D58">
-        <v>-0.001568471737275888</v>
+        <v>-1.568471737275888E-3</v>
       </c>
       <c r="E58">
-        <v>-0.003595197687913142</v>
+        <v>-3.5951976879131419E-3</v>
       </c>
       <c r="F58">
-        <v>-9.423449741123346e-05</v>
+        <v>-9.4234497411233465E-5</v>
       </c>
       <c r="G58">
-        <v>-0.004682596934001761</v>
+        <v>-4.6825969340017612E-3</v>
       </c>
       <c r="H58">
-        <v>0.000147666717737983</v>
+        <v>1.47666717737983E-4</v>
       </c>
       <c r="I58">
-        <v>0.005039103062011794</v>
+        <v>5.0391030620117938E-3</v>
       </c>
       <c r="J58">
-        <v>0.04584865660022081</v>
+        <v>4.5848656600220812E-2</v>
       </c>
       <c r="K58">
-        <v>0.1655886130320789</v>
+        <v>0.16558861303207889</v>
       </c>
       <c r="L58">
-        <v>0.2614757069088147</v>
+        <v>0.26147570690881472</v>
       </c>
       <c r="M58">
         <v>0.3078032021885882</v>
       </c>
       <c r="N58">
-        <v>0.3657783992192792</v>
+        <v>0.36577839921927918</v>
       </c>
       <c r="O58">
-        <v>0.3956284365412022</v>
+        <v>0.39562843654120222</v>
       </c>
       <c r="P58">
-        <v>0.4152709889401389</v>
+        <v>0.41527098894013892</v>
       </c>
       <c r="Q58">
-        <v>0.4420077009461348</v>
+        <v>0.44200770094613479</v>
       </c>
       <c r="R58">
-        <v>0.4586280488357475</v>
+        <v>0.45862804883574748</v>
       </c>
       <c r="S58">
-        <v>0.4699761312055784</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19">
+        <v>0.46997613120557841</v>
+      </c>
+      <c r="T58">
+        <v>0.62892097000000002</v>
+      </c>
+      <c r="U58">
+        <v>0.89183180799999995</v>
+      </c>
+      <c r="V58">
+        <v>0.93846059800000003</v>
+      </c>
+      <c r="W58">
+        <v>0.95182684900000003</v>
+      </c>
+      <c r="X58">
+        <v>0.95605828599999998</v>
+      </c>
+      <c r="Y58">
+        <v>0.97079566699999997</v>
+      </c>
+      <c r="Z58">
+        <v>0.97578830599999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B59">
-        <v>0.007847602647121265</v>
+        <v>7.847602647121265E-3</v>
       </c>
       <c r="C59">
-        <v>0.002764407198162485</v>
+        <v>2.7644071981624851E-3</v>
       </c>
       <c r="D59">
-        <v>0.001334031163948755</v>
+        <v>1.334031163948755E-3</v>
       </c>
       <c r="E59">
-        <v>-0.005834921600105071</v>
+        <v>-5.8349216001050714E-3</v>
       </c>
       <c r="F59">
-        <v>0.006330068949073445</v>
+        <v>6.3300689490734452E-3</v>
       </c>
       <c r="G59">
-        <v>-0.006910800642276248</v>
+        <v>-6.9108006422762477E-3</v>
       </c>
       <c r="H59">
-        <v>-0.003156134499550767</v>
+        <v>-3.1561344995507672E-3</v>
       </c>
       <c r="I59">
-        <v>0.0007037626337644798</v>
+        <v>7.0376263376447984E-4</v>
       </c>
       <c r="J59">
-        <v>0.04628490965153318</v>
+        <v>4.6284909651533181E-2</v>
       </c>
       <c r="K59">
         <v>0.1651361892037847</v>
@@ -3584,396 +4798,543 @@
         <v>0.2553150929964656</v>
       </c>
       <c r="M59">
-        <v>0.3142857391982685</v>
+        <v>0.31428573919826852</v>
       </c>
       <c r="N59">
-        <v>0.3650960780939969</v>
+        <v>0.36509607809399691</v>
       </c>
       <c r="O59">
-        <v>0.3984017507398034</v>
+        <v>0.39840175073980338</v>
       </c>
       <c r="P59">
-        <v>0.415949277824102</v>
+        <v>0.41594927782410201</v>
       </c>
       <c r="Q59">
-        <v>0.4400611341598478</v>
+        <v>0.44006113415984782</v>
       </c>
       <c r="R59">
-        <v>0.4511542175182662</v>
+        <v>0.45115421751826618</v>
       </c>
       <c r="S59">
-        <v>0.4731098108488249</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19">
+        <v>0.47310981084882492</v>
+      </c>
+      <c r="T59">
+        <v>0.62195989399999996</v>
+      </c>
+      <c r="U59">
+        <v>0.88930279000000001</v>
+      </c>
+      <c r="V59">
+        <v>0.938264459</v>
+      </c>
+      <c r="W59">
+        <v>0.94961145199999997</v>
+      </c>
+      <c r="X59">
+        <v>0.95439926600000002</v>
+      </c>
+      <c r="Y59">
+        <v>0.97129668199999997</v>
+      </c>
+      <c r="Z59">
+        <v>0.97494254599999997</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B60">
-        <v>0.003727698177944195</v>
+        <v>3.7276981779441952E-3</v>
       </c>
       <c r="C60">
-        <v>-9.369591465099445e-05</v>
+        <v>-9.3695914650994446E-5</v>
       </c>
       <c r="D60">
-        <v>-0.0002697995218048175</v>
+        <v>-2.6979952180481749E-4</v>
       </c>
       <c r="E60">
-        <v>-0.0007003807852802904</v>
+        <v>-7.0038078528029035E-4</v>
       </c>
       <c r="F60">
-        <v>0.005350676840269816</v>
+        <v>5.3506768402698159E-3</v>
       </c>
       <c r="G60">
-        <v>-0.00888521933231437</v>
+        <v>-8.8852193323143702E-3</v>
       </c>
       <c r="H60">
-        <v>0.00224560078906115</v>
+        <v>2.2456007890611501E-3</v>
       </c>
       <c r="I60">
-        <v>-0.0004064882943807125</v>
+        <v>-4.064882943807125E-4</v>
       </c>
       <c r="J60">
-        <v>0.03976523137624118</v>
+        <v>3.9765231376241182E-2</v>
       </c>
       <c r="K60">
         <v>0.1679251600543738</v>
       </c>
       <c r="L60">
-        <v>0.2531334584174214</v>
+        <v>0.25313345841742141</v>
       </c>
       <c r="M60">
         <v>0.310790752038408</v>
       </c>
       <c r="N60">
-        <v>0.3618023708585923</v>
+        <v>0.36180237085859229</v>
       </c>
       <c r="O60">
         <v>0.3928230173338737</v>
       </c>
       <c r="P60">
-        <v>0.4183374277280882</v>
+        <v>0.41833742772808818</v>
       </c>
       <c r="Q60">
-        <v>0.438212784114863</v>
+        <v>0.43821278411486297</v>
       </c>
       <c r="R60">
-        <v>0.4566975256258085</v>
+        <v>0.45669752562580851</v>
       </c>
       <c r="S60">
         <v>0.4704738148226435</v>
       </c>
-    </row>
-    <row r="61" spans="2:19">
+      <c r="T60">
+        <v>0.62429255699999997</v>
+      </c>
+      <c r="U60">
+        <v>0.88514640600000005</v>
+      </c>
+      <c r="V60">
+        <v>0.93866746499999998</v>
+      </c>
+      <c r="W60">
+        <v>0.95088309699999995</v>
+      </c>
+      <c r="X60">
+        <v>0.95524973700000004</v>
+      </c>
+      <c r="Y60">
+        <v>0.97104441100000005</v>
+      </c>
+      <c r="Z60">
+        <v>0.97510143299999996</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B61">
-        <v>0.003734240571357187</v>
+        <v>3.734240571357187E-3</v>
       </c>
       <c r="C61">
-        <v>0.003784662656732941</v>
+        <v>3.7846626567329409E-3</v>
       </c>
       <c r="D61">
-        <v>0.0008771156956757137</v>
+        <v>8.7711569567571368E-4</v>
       </c>
       <c r="E61">
-        <v>-0.005415490059766461</v>
+        <v>-5.4154900597664611E-3</v>
       </c>
       <c r="F61">
-        <v>0.00132870137552862</v>
+        <v>1.32870137552862E-3</v>
       </c>
       <c r="G61">
-        <v>0.0029499423828019</v>
+        <v>2.9499423828019001E-3</v>
       </c>
       <c r="H61">
-        <v>-0.001316876000457763</v>
+        <v>-1.316876000457763E-3</v>
       </c>
       <c r="I61">
-        <v>0.006703739136278527</v>
+        <v>6.7037391362785269E-3</v>
       </c>
       <c r="J61">
-        <v>0.04123942378263599</v>
+        <v>4.1239423782635988E-2</v>
       </c>
       <c r="K61">
-        <v>0.1649104843727497</v>
+        <v>0.16491048437274969</v>
       </c>
       <c r="L61">
-        <v>0.252473451936914</v>
+        <v>0.25247345193691401</v>
       </c>
       <c r="M61">
         <v>0.3134163532051315</v>
       </c>
       <c r="N61">
-        <v>0.3599545337417863</v>
+        <v>0.35995453374178632</v>
       </c>
       <c r="O61">
-        <v>0.3951495675993009</v>
+        <v>0.39514956759930092</v>
       </c>
       <c r="P61">
-        <v>0.4147915757675573</v>
+        <v>0.41479157576755732</v>
       </c>
       <c r="Q61">
-        <v>0.4317372348969322</v>
+        <v>0.43173723489693222</v>
       </c>
       <c r="R61">
         <v>0.4505754826390837</v>
       </c>
       <c r="S61">
-        <v>0.472659812192776</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19">
+        <v>0.47265981219277597</v>
+      </c>
+      <c r="T61">
+        <v>0.62348363699999998</v>
+      </c>
+      <c r="U61">
+        <v>0.88660616599999997</v>
+      </c>
+      <c r="V61">
+        <v>0.93751028300000006</v>
+      </c>
+      <c r="W61">
+        <v>0.94915581599999999</v>
+      </c>
+      <c r="X61">
+        <v>0.95566299700000001</v>
+      </c>
+      <c r="Y61">
+        <v>0.97109098400000005</v>
+      </c>
+      <c r="Z61">
+        <v>0.97627847000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B62">
-        <v>0.008445488131701592</v>
+        <v>8.4454881317015916E-3</v>
       </c>
       <c r="C62">
-        <v>0.001105768806134706</v>
+        <v>1.1057688061347059E-3</v>
       </c>
       <c r="D62">
-        <v>0.001496403658154806</v>
+        <v>1.4964036581548059E-3</v>
       </c>
       <c r="E62">
-        <v>-0.002079665749255478</v>
+        <v>-2.079665749255478E-3</v>
       </c>
       <c r="F62">
-        <v>-0.0003896549976727735</v>
+        <v>-3.8965499767277352E-4</v>
       </c>
       <c r="G62">
-        <v>-0.002112940002040079</v>
+        <v>-2.1129400020400788E-3</v>
       </c>
       <c r="H62">
-        <v>0.00340256726334386</v>
+        <v>3.4025672633438602E-3</v>
       </c>
       <c r="I62">
-        <v>0.002141915532880584</v>
+        <v>2.1419155328805842E-3</v>
       </c>
       <c r="J62">
-        <v>0.04655113209445499</v>
+        <v>4.6551132094454988E-2</v>
       </c>
       <c r="K62">
         <v>0.1663398334845041</v>
       </c>
       <c r="L62">
-        <v>0.2553963569913441</v>
+        <v>0.25539635699134411</v>
       </c>
       <c r="M62">
-        <v>0.3111469916862319</v>
+        <v>0.31114699168623189</v>
       </c>
       <c r="N62">
-        <v>0.3670212584475475</v>
+        <v>0.36702125844754752</v>
       </c>
       <c r="O62">
-        <v>0.3973572502062471</v>
+        <v>0.39735725020624713</v>
       </c>
       <c r="P62">
-        <v>0.4189006346615765</v>
+        <v>0.41890063466157651</v>
       </c>
       <c r="Q62">
-        <v>0.438472020740426</v>
+        <v>0.43847202074042602</v>
       </c>
       <c r="R62">
         <v>0.4524066531785888</v>
       </c>
       <c r="S62">
-        <v>0.4693597672941285</v>
-      </c>
-    </row>
-    <row r="63" spans="2:19">
+        <v>0.46935976729412848</v>
+      </c>
+      <c r="T62">
+        <v>0.61130543599999998</v>
+      </c>
+      <c r="U62">
+        <v>0.88923219600000003</v>
+      </c>
+      <c r="V62">
+        <v>0.93542058699999997</v>
+      </c>
+      <c r="W62">
+        <v>0.950814822</v>
+      </c>
+      <c r="X62">
+        <v>0.95371811699999998</v>
+      </c>
+      <c r="Y62">
+        <v>0.97100179600000003</v>
+      </c>
+      <c r="Z62">
+        <v>0.97496518899999995</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B63">
-        <v>0.006654559917860212</v>
+        <v>6.6545599178602123E-3</v>
       </c>
       <c r="C63">
-        <v>-0.001680138319987256</v>
+        <v>-1.680138319987256E-3</v>
       </c>
       <c r="D63">
-        <v>-0.007700876876015401</v>
+        <v>-7.7008768760154006E-3</v>
       </c>
       <c r="E63">
-        <v>-0.007247928327444045</v>
+        <v>-7.2479283274440448E-3</v>
       </c>
       <c r="F63">
-        <v>0.003922832470458209</v>
+        <v>3.9228324704582091E-3</v>
       </c>
       <c r="G63">
-        <v>0.001104364939123495</v>
+        <v>1.1043649391234949E-3</v>
       </c>
       <c r="H63">
-        <v>-0.001804497285512492</v>
+        <v>-1.8044972855124921E-3</v>
       </c>
       <c r="I63">
-        <v>0.008137991413406188</v>
+        <v>8.1379914134061884E-3</v>
       </c>
       <c r="J63">
-        <v>0.04313318998542486</v>
+        <v>4.3133189985424862E-2</v>
       </c>
       <c r="K63">
-        <v>0.1654493522751948</v>
+        <v>0.16544935227519481</v>
       </c>
       <c r="L63">
-        <v>0.2555905842105259</v>
+        <v>0.25559058421052588</v>
       </c>
       <c r="M63">
-        <v>0.3090576810562991</v>
+        <v>0.30905768105629911</v>
       </c>
       <c r="N63">
-        <v>0.3616041070094044</v>
+        <v>0.36160410700940437</v>
       </c>
       <c r="O63">
-        <v>0.3941437554105695</v>
+        <v>0.39414375541056951</v>
       </c>
       <c r="P63">
-        <v>0.4153254847037514</v>
+        <v>0.41532548470375141</v>
       </c>
       <c r="Q63">
-        <v>0.4344896493802549</v>
+        <v>0.43448964938025492</v>
       </c>
       <c r="R63">
-        <v>0.4512450506663209</v>
+        <v>0.45124505066632092</v>
       </c>
       <c r="S63">
-        <v>0.4704411420940939</v>
-      </c>
-    </row>
-    <row r="64" spans="2:19">
+        <v>0.47044114209409388</v>
+      </c>
+      <c r="T63">
+        <v>0.60715519200000001</v>
+      </c>
+      <c r="U63">
+        <v>0.88937628499999999</v>
+      </c>
+      <c r="V63">
+        <v>0.93802691599999999</v>
+      </c>
+      <c r="W63">
+        <v>0.95149348300000003</v>
+      </c>
+      <c r="X63">
+        <v>0.95403120399999997</v>
+      </c>
+      <c r="Y63">
+        <v>0.97098409799999996</v>
+      </c>
+      <c r="Z63">
+        <v>0.976023792</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B64">
-        <v>0.003439038936471585</v>
+        <v>3.4390389364715849E-3</v>
       </c>
       <c r="C64">
-        <v>0.0007365305348143976</v>
+        <v>7.3653053481439763E-4</v>
       </c>
       <c r="D64">
-        <v>-0.002232758802826459</v>
+        <v>-2.232758802826459E-3</v>
       </c>
       <c r="E64">
-        <v>-0.0006295845582875242</v>
+        <v>-6.2958455828752416E-4</v>
       </c>
       <c r="F64">
-        <v>-0.0003430609543019158</v>
+        <v>-3.4306095430191582E-4</v>
       </c>
       <c r="G64">
-        <v>-0.001924074821344486</v>
+        <v>-1.9240748213444859E-3</v>
       </c>
       <c r="H64">
-        <v>0.001378088509910843</v>
+        <v>1.3780885099108429E-3</v>
       </c>
       <c r="I64">
-        <v>0.0006438310451573167</v>
+        <v>6.4383104515731667E-4</v>
       </c>
       <c r="J64">
-        <v>0.04528635006853458</v>
+        <v>4.5286350068534577E-2</v>
       </c>
       <c r="K64">
-        <v>0.1658896244748952</v>
+        <v>0.16588962447489519</v>
       </c>
       <c r="L64">
-        <v>0.2470355761854947</v>
+        <v>0.24703557618549471</v>
       </c>
       <c r="M64">
-        <v>0.3125647475495876</v>
+        <v>0.31256474754958757</v>
       </c>
       <c r="N64">
-        <v>0.3620256178416377</v>
+        <v>0.36202561784163773</v>
       </c>
       <c r="O64">
-        <v>0.3950722973669863</v>
+        <v>0.39507229736698629</v>
       </c>
       <c r="P64">
-        <v>0.4151519864094808</v>
+        <v>0.41515198640948081</v>
       </c>
       <c r="Q64">
-        <v>0.4367675988311092</v>
+        <v>0.43676759883110922</v>
       </c>
       <c r="R64">
-        <v>0.453519272179023</v>
+        <v>0.45351927217902299</v>
       </c>
       <c r="S64">
-        <v>0.4721388837413895</v>
-      </c>
-    </row>
-    <row r="65" spans="2:19">
+        <v>0.47213888374138951</v>
+      </c>
+      <c r="T64">
+        <v>0.61797516900000005</v>
+      </c>
+      <c r="U64">
+        <v>0.88925030100000002</v>
+      </c>
+      <c r="V64">
+        <v>0.93746480700000001</v>
+      </c>
+      <c r="W64">
+        <v>0.95115569799999999</v>
+      </c>
+      <c r="X64">
+        <v>0.95587615800000003</v>
+      </c>
+      <c r="Y64">
+        <v>0.97142547999999995</v>
+      </c>
+      <c r="Z64">
+        <v>0.97563719999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B65">
-        <v>0.002809261324201101</v>
+        <v>2.8092613242011008E-3</v>
       </c>
       <c r="C65">
-        <v>-0.0001318594286884783</v>
+        <v>-1.3185942868847831E-4</v>
       </c>
       <c r="D65">
-        <v>0.00271292239480619</v>
+        <v>2.7129223948061899E-3</v>
       </c>
       <c r="E65">
-        <v>-0.0003730033533195373</v>
+        <v>-3.7300335331953732E-4</v>
       </c>
       <c r="F65">
-        <v>-0.001741437579732648</v>
+        <v>-1.7414375797326479E-3</v>
       </c>
       <c r="G65">
-        <v>-0.001258555124422106</v>
+        <v>-1.258555124422106E-3</v>
       </c>
       <c r="H65">
-        <v>-0.0005183761965254714</v>
+        <v>-5.1837619652547143E-4</v>
       </c>
       <c r="I65">
-        <v>0.008511974158817553</v>
+        <v>8.5119741588175531E-3</v>
       </c>
       <c r="J65">
-        <v>0.04293218505360764</v>
+        <v>4.2932185053607637E-2</v>
       </c>
       <c r="K65">
-        <v>0.1693514430650487</v>
+        <v>0.16935144306504871</v>
       </c>
       <c r="L65">
-        <v>0.2512192833316954</v>
+        <v>0.25121928333169541</v>
       </c>
       <c r="M65">
-        <v>0.3074481704190966</v>
+        <v>0.30744817041909661</v>
       </c>
       <c r="N65">
         <v>0.364114773552771</v>
       </c>
       <c r="O65">
-        <v>0.3933339830164436</v>
+        <v>0.39333398301644362</v>
       </c>
       <c r="P65">
-        <v>0.4133596702811381</v>
+        <v>0.41335967028113813</v>
       </c>
       <c r="Q65">
-        <v>0.4351239171576725</v>
+        <v>0.43512391715767251</v>
       </c>
       <c r="R65">
-        <v>0.4548920251784567</v>
+        <v>0.45489202517845673</v>
       </c>
       <c r="S65">
-        <v>0.4724856855254566</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19">
+        <v>0.47248568552545661</v>
+      </c>
+      <c r="T65">
+        <v>0.61606289700000005</v>
+      </c>
+      <c r="U65">
+        <v>0.88537253500000002</v>
+      </c>
+      <c r="V65">
+        <v>0.94056652600000001</v>
+      </c>
+      <c r="W65">
+        <v>0.94848286999999998</v>
+      </c>
+      <c r="X65">
+        <v>0.95402564400000001</v>
+      </c>
+      <c r="Y65">
+        <v>0.97071662299999995</v>
+      </c>
+      <c r="Z65">
+        <v>0.97540011900000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B66">
-        <v>0.001819588192071753</v>
+        <v>1.8195881920717531E-3</v>
       </c>
       <c r="C66">
-        <v>0.003504626862319443</v>
+        <v>3.5046268623194431E-3</v>
       </c>
       <c r="D66">
-        <v>0.001917533584649017</v>
+        <v>1.917533584649017E-3</v>
       </c>
       <c r="E66">
-        <v>-0.0009020548191125075</v>
+        <v>-9.0205481911250754E-4</v>
       </c>
       <c r="F66">
-        <v>0.00073388730936907</v>
+        <v>7.3388730936906998E-4</v>
       </c>
       <c r="G66">
-        <v>0.005012799906220776</v>
+        <v>5.0127999062207756E-3</v>
       </c>
       <c r="H66">
-        <v>0.003254311007751289</v>
+        <v>3.2543110077512889E-3</v>
       </c>
       <c r="I66">
-        <v>0.001809678567469373</v>
+        <v>1.809678567469373E-3</v>
       </c>
       <c r="J66">
-        <v>0.04442365341107957</v>
+        <v>4.4423653411079567E-2</v>
       </c>
       <c r="K66">
-        <v>0.1644833033119839</v>
+        <v>0.16448330331198391</v>
       </c>
       <c r="L66">
-        <v>0.2531601899632985</v>
+        <v>0.25316018996329848</v>
       </c>
       <c r="M66">
         <v>0.3154285560540791</v>
@@ -3982,19 +5343,40 @@
         <v>0.3654883244322526</v>
       </c>
       <c r="O66">
-        <v>0.3903289995185193</v>
+        <v>0.39032899951851929</v>
       </c>
       <c r="P66">
-        <v>0.4116779733438625</v>
+        <v>0.41167797334386252</v>
       </c>
       <c r="Q66">
-        <v>0.4327213692466</v>
+        <v>0.43272136924659999</v>
       </c>
       <c r="R66">
-        <v>0.4571738017059926</v>
+        <v>0.45717380170599259</v>
       </c>
       <c r="S66">
-        <v>0.4747027437502355</v>
+        <v>0.47470274375023552</v>
+      </c>
+      <c r="T66">
+        <v>0.62253199100000001</v>
+      </c>
+      <c r="U66">
+        <v>0.89148127200000005</v>
+      </c>
+      <c r="V66">
+        <v>0.93697192100000004</v>
+      </c>
+      <c r="W66">
+        <v>0.94895977499999995</v>
+      </c>
+      <c r="X66">
+        <v>0.95483979500000005</v>
+      </c>
+      <c r="Y66">
+        <v>0.970410989</v>
+      </c>
+      <c r="Z66">
+        <v>0.97531847100000002</v>
       </c>
     </row>
   </sheetData>
